--- a/resource/QSET.xlsx
+++ b/resource/QSET.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I339640\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\idl-datastructure\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F50AD1A-FA65-488B-A162-B3207BF1D8AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10CB9949-C1AF-44E4-AB8F-8A93B46AEDF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="859">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="864">
   <si>
     <t>Two Sum</t>
   </si>
@@ -2627,6 +2627,22 @@
   </si>
   <si>
     <t>Move Pieces to Obtain a String</t>
+  </si>
+  <si>
+    <t>Longest Binary Subsequence Less Than or Equal to K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	
+Closest Node to Path in Tree</t>
+  </si>
+  <si>
+    <t>Count Integers in Intervals</t>
+  </si>
+  <si>
+    <t>Maximum White Tiles Covered by a Carpet</t>
+  </si>
+  <si>
+    <t>Intervals</t>
   </si>
 </sst>
 </file>
@@ -2841,7 +2857,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2882,6 +2898,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3167,8 +3186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E752"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A728" workbookViewId="0">
-      <selection activeCell="D751" sqref="D751"/>
+    <sheetView tabSelected="1" topLeftCell="A719" workbookViewId="0">
+      <selection activeCell="D735" sqref="D735"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9940,30 +9959,60 @@
       <c r="A745" s="5">
         <v>2271</v>
       </c>
+      <c r="B745" t="s">
+        <v>862</v>
+      </c>
+      <c r="C745" t="s">
+        <v>3</v>
+      </c>
+      <c r="D745" t="s">
+        <v>863</v>
+      </c>
     </row>
     <row r="746" spans="1:4">
       <c r="A746" s="5">
         <v>2276</v>
       </c>
-    </row>
-    <row r="747" spans="1:4">
+      <c r="B746" t="s">
+        <v>861</v>
+      </c>
+      <c r="C746" t="s">
+        <v>6</v>
+      </c>
+      <c r="D746" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="747" spans="1:4" ht="16.2" customHeight="1">
       <c r="A747" s="5">
         <v>2277</v>
+      </c>
+      <c r="B747" s="18" t="s">
+        <v>860</v>
+      </c>
+      <c r="C747" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="748" spans="1:4">
       <c r="A748" s="5">
         <v>2311</v>
       </c>
-    </row>
-    <row r="749" spans="1:4">
+      <c r="B748" t="s">
+        <v>859</v>
+      </c>
+      <c r="C748" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="749" spans="1:4" s="5" customFormat="1">
       <c r="A749" s="5">
         <v>2337</v>
       </c>
-      <c r="B749" t="s">
+      <c r="B749" s="5" t="s">
         <v>858</v>
       </c>
-      <c r="C749" t="s">
+      <c r="C749" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -9975,7 +10024,7 @@
         <v>855</v>
       </c>
       <c r="C750" s="5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="751" spans="1:4" s="5" customFormat="1">

--- a/resource/QSET.xlsx
+++ b/resource/QSET.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I339640\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\idl-datastructure\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F50AD1A-FA65-488B-A162-B3207BF1D8AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646A0CB0-3B28-4A02-84AC-EEE0FCDF55E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Google" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="859">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="860">
   <si>
     <t>Two Sum</t>
   </si>
@@ -2627,6 +2627,9 @@
   </si>
   <si>
     <t>Move Pieces to Obtain a String</t>
+  </si>
+  <si>
+    <t>dc,/</t>
   </si>
 </sst>
 </file>
@@ -3168,16 +3171,16 @@
   <dimension ref="A1:E752"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A728" workbookViewId="0">
-      <selection activeCell="D751" sqref="D751"/>
+      <selection activeCell="B748" sqref="B748"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.41796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.68359375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.20703125" customWidth="1"/>
-    <col min="5" max="5" width="60.1015625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.21875" customWidth="1"/>
+    <col min="5" max="5" width="60.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="5" customFormat="1">
@@ -9954,6 +9957,9 @@
     <row r="748" spans="1:4">
       <c r="A748" s="5">
         <v>2311</v>
+      </c>
+      <c r="B748" t="s">
+        <v>859</v>
       </c>
     </row>
     <row r="749" spans="1:4">
@@ -10020,12 +10026,12 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="135.5234375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="135.5546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="24.68359375" customWidth="1"/>
-    <col min="2" max="2" width="42.41796875" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="42.44140625" customWidth="1"/>
     <col min="3" max="3" width="79" customWidth="1"/>
-    <col min="4" max="4" width="169.3125" customWidth="1"/>
+    <col min="4" max="4" width="169.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1" thickBot="1">

--- a/resource/QSET.xlsx
+++ b/resource/QSET.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\idl-datastructure\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646A0CB0-3B28-4A02-84AC-EEE0FCDF55E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8030BC6D-795C-474E-8C2D-5F238914E9E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="B75" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Google!$A$1:$E$563</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Google!$A$1:$E$750</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="860">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1828" uniqueCount="962">
   <si>
     <t>Two Sum</t>
   </si>
@@ -1535,9 +1535,6 @@
   </si>
   <si>
     <t xml:space="preserve">Sentence Similarity </t>
-  </si>
-  <si>
-    <t xml:space="preserve">String Transforms Into Another String </t>
   </si>
   <si>
     <t xml:space="preserve">Bricks Falling When Hit </t>
@@ -2629,7 +2626,316 @@
     <t>Move Pieces to Obtain a String</t>
   </si>
   <si>
-    <t>dc,/</t>
+    <t>Detect Squares  </t>
+  </si>
+  <si>
+    <t>Check if Word Can Be Placed In Crossword    </t>
+  </si>
+  <si>
+    <t>Stock Price Fluctuation  </t>
+  </si>
+  <si>
+    <t>Partition Array Into Two Arrays to Minimize Sum Difference    </t>
+  </si>
+  <si>
+    <t>Find All People With Secret </t>
+  </si>
+  <si>
+    <t>Step-By-Step Directions From a Binary Tree Node to Another   </t>
+  </si>
+  <si>
+    <t>Detonate the Maximum Bombs    </t>
+  </si>
+  <si>
+    <t>Find All Possible Recipes from Given Supplies   </t>
+  </si>
+  <si>
+    <t>Maximum Employees to Be Invited to a Meeting    </t>
+  </si>
+  <si>
+    <t>Remove All Ones With Row and Column Flips</t>
+  </si>
+  <si>
+    <t>Stamping the Grid  </t>
+  </si>
+  <si>
+    <t>Count Words Obtained After Adding a Letter  </t>
+  </si>
+  <si>
+    <t>Amount of New Area Painted Each Day </t>
+  </si>
+  <si>
+    <t>Minimum Cost to Set Cooking Time    </t>
+  </si>
+  <si>
+    <t>Maximum AND Sum of Array </t>
+  </si>
+  <si>
+    <t>Removing Minimum Number of Magic Beans </t>
+  </si>
+  <si>
+    <t>Maximum Split of Positive Even Integers   </t>
+  </si>
+  <si>
+    <t>Number of Ways to Build Sturdy Brick Wall</t>
+  </si>
+  <si>
+    <t>Counting Words With a Given Prefix   </t>
+  </si>
+  <si>
+    <t>Minimum Time to Finish the Race  </t>
+  </si>
+  <si>
+    <t>Minimum Number of Operations to Convert Time    </t>
+  </si>
+  <si>
+    <t>Add Two Integers </t>
+  </si>
+  <si>
+    <t>Maximum Score of a Node Sequence    </t>
+  </si>
+  <si>
+    <t>Count Number of Rectangles Containing Each Point    </t>
+  </si>
+  <si>
+    <t>Escape the Spreading Fire</t>
+  </si>
+  <si>
+    <t>Maximum White Tiles Covered by a Carpet    </t>
+  </si>
+  <si>
+    <t>Count Integers in Intervals  </t>
+  </si>
+  <si>
+    <t>Closest Node to Path in Tree </t>
+  </si>
+  <si>
+    <t>Longest Binary Subsequence Less Than or Equal to K    </t>
+  </si>
+  <si>
+    <t>The Number of Weak Characters in the Game    </t>
+  </si>
+  <si>
+    <t>Minimum Number of Work Sessions to Finish the Tasks   </t>
+  </si>
+  <si>
+    <t>Maximum Number of Points with Cost    </t>
+  </si>
+  <si>
+    <t>Count Pairs in Two Arrays </t>
+  </si>
+  <si>
+    <t>Process Tasks Using Servers</t>
+  </si>
+  <si>
+    <t>Single-Threaded CPU    </t>
+  </si>
+  <si>
+    <t>Finding MK Average  </t>
+  </si>
+  <si>
+    <t>Maximum Number of Accepted Invitations </t>
+  </si>
+  <si>
+    <t>Maximum Score of a Good Subarray    </t>
+  </si>
+  <si>
+    <t>Car Fleet II  </t>
+  </si>
+  <si>
+    <t>Design Most Recently Used Queue </t>
+  </si>
+  <si>
+    <t>Checking Existence of Edge Length Limited Paths </t>
+  </si>
+  <si>
+    <t>Minimum Deletions to Make Character Frequencies Unique  </t>
+  </si>
+  <si>
+    <t>Furthest Building You Can Reach   </t>
+  </si>
+  <si>
+    <t>Rank Transform of a Matrix   </t>
+  </si>
+  <si>
+    <t>Path With Minimum Effort </t>
+  </si>
+  <si>
+    <t>Design an Expression Tree With Evaluate Function </t>
+  </si>
+  <si>
+    <t>Maximum Number of Visible Points  </t>
+  </si>
+  <si>
+    <t>Find Servers That Handled Most Number of Requests  </t>
+  </si>
+  <si>
+    <t>Build Binary Expression Tree From Infix Expression </t>
+  </si>
+  <si>
+    <t>Remove Max Number of Edges to Keep Graph Fully Traversable   </t>
+  </si>
+  <si>
+    <t>Strings Differ by One Character  </t>
+  </si>
+  <si>
+    <t>Find Root of N-Ary Tree</t>
+  </si>
+  <si>
+    <t>Max Value of Equation  </t>
+  </si>
+  <si>
+    <t>Find Two Non-overlapping Sub-arrays Each With Target Sum   </t>
+  </si>
+  <si>
+    <t>Paint House III   </t>
+  </si>
+  <si>
+    <t>Maximum Points You Can Obtain from Cards   </t>
+  </si>
+  <si>
+    <t>Sort Integers by The Power Value    </t>
+  </si>
+  <si>
+    <t>Time Needed to Inform All Employees  </t>
+  </si>
+  <si>
+    <t>Largest Multiple of Three   </t>
+  </si>
+  <si>
+    <t>Product of the Last K Numbers</t>
+  </si>
+  <si>
+    <t>Jump Game IV   </t>
+  </si>
+  <si>
+    <t>Deepest Leaves Sum    </t>
+  </si>
+  <si>
+    <t>Divide Array in Sets of K Consecutive Numbers   </t>
+  </si>
+  <si>
+    <t>Shortest Path in a Grid with Obstacles Elimination   </t>
+  </si>
+  <si>
+    <t>Minimum Number of Flips to Convert Binary Matrix to Zero Matrix </t>
+  </si>
+  <si>
+    <t>Find Winner on a Tic Tac Toe Game  </t>
+  </si>
+  <si>
+    <t>Minimum Moves to Move a Box to Their Target Location  </t>
+  </si>
+  <si>
+    <t>Maximum Score Words Formed by Letters    </t>
+  </si>
+  <si>
+    <t>Number of Closed Islands </t>
+  </si>
+  <si>
+    <t>Tiling a Rectangle with the Fewest Squares </t>
+  </si>
+  <si>
+    <t>Find Positive Integer Solution for a Given Equation </t>
+  </si>
+  <si>
+    <t>Meeting Scheduler    </t>
+  </si>
+  <si>
+    <t>Count Vowels Permutation   </t>
+  </si>
+  <si>
+    <t>Longest Arithmetic Subsequence of Given Difference  </t>
+  </si>
+  <si>
+    <t>Minimum Knight Moves </t>
+  </si>
+  <si>
+    <t>Remove Zero Sum Consecutive Nodes from Linked List    </t>
+  </si>
+  <si>
+    <t>String Transforms Into Another String  </t>
+  </si>
+  <si>
+    <t>The Earliest Moment When Everyone Become Friends    </t>
+  </si>
+  <si>
+    <t>Path With Maximum Minimum Value </t>
+  </si>
+  <si>
+    <t>Filling Bookcase Shelves   </t>
+  </si>
+  <si>
+    <t>Shortest Path in Binary Matrix    </t>
+  </si>
+  <si>
+    <t>Grumpy Bookstore Owner    </t>
+  </si>
+  <si>
+    <t>Longest String Chain    </t>
+  </si>
+  <si>
+    <t>Max Consecutive Ones III    </t>
+  </si>
+  <si>
+    <t>Regions Cut By Slashes   </t>
+  </si>
+  <si>
+    <t>Largest Time for Given Digits   </t>
+  </si>
+  <si>
+    <t>Find and Replace Pattern    </t>
+  </si>
+  <si>
+    <t>Similar String Groups </t>
+  </si>
+  <si>
+    <t>H-Index  </t>
+  </si>
+  <si>
+    <t>Best Meeting Point</t>
+  </si>
+  <si>
+    <t>Additive Number    </t>
+  </si>
+  <si>
+    <t>Longest Absolute File Path</t>
+  </si>
+  <si>
+    <t>Sentence Screen Fitting    </t>
+  </si>
+  <si>
+    <t>Strong Password Checker    </t>
+  </si>
+  <si>
+    <t>Construct Quad Tree    </t>
+  </si>
+  <si>
+    <t>Minimum Moves to Equal Array Elements II    </t>
+  </si>
+  <si>
+    <t>Minimum Time Difference    </t>
+  </si>
+  <si>
+    <t>Valid Square    </t>
+  </si>
+  <si>
+    <t>K Inverse Pairs Array    </t>
+  </si>
+  <si>
+    <t>Range Module   </t>
+  </si>
+  <si>
+    <t>Employee Free Time </t>
+  </si>
+  <si>
+    <t>Swim in Rising Water    </t>
+  </si>
+  <si>
+    <t>Domino and Tromino Tiling    </t>
+  </si>
+  <si>
+    <t>Max Increase to Keep City Skyline </t>
   </si>
 </sst>
 </file>
@@ -2844,7 +3150,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2887,6 +3193,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3168,10 +3475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E752"/>
+  <dimension ref="A1:E750"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A728" workbookViewId="0">
-      <selection activeCell="B748" sqref="B748"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3183,7 +3490,7 @@
     <col min="5" max="5" width="60.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1">
+    <row r="1" spans="1:5" s="5" customFormat="1" ht="16.2" customHeight="1">
       <c r="A1" s="5">
         <v>1</v>
       </c>
@@ -3240,7 +3547,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E5" s="16"/>
     </row>
@@ -3260,7 +3567,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
@@ -3293,7 +3600,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>1</v>
@@ -3343,10 +3650,10 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3371,7 +3678,7 @@
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3407,10 +3714,10 @@
         <v>3</v>
       </c>
       <c r="D19" t="s">
+        <v>646</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>647</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3424,10 +3731,10 @@
         <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E20" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3518,7 +3825,7 @@
         <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="3" customFormat="1">
@@ -3583,13 +3890,13 @@
         <v>43</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E34" s="3"/>
     </row>
@@ -3732,13 +4039,13 @@
         <v>57</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E47" s="5"/>
     </row>
@@ -3747,7 +4054,7 @@
         <v>61</v>
       </c>
       <c r="B48" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C48" t="s">
         <v>3</v>
@@ -3804,7 +4111,7 @@
         <v>67</v>
       </c>
       <c r="B53" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C53" t="s">
         <v>1</v>
@@ -3815,7 +4122,7 @@
         <v>68</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C54" t="s">
         <v>6</v>
@@ -3909,7 +4216,7 @@
         <v>3</v>
       </c>
       <c r="D62" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -3994,7 +4301,7 @@
         <v>87</v>
       </c>
       <c r="B70" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C70" t="s">
         <v>6</v>
@@ -4051,7 +4358,7 @@
         <v>93</v>
       </c>
       <c r="B75" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C75" t="s">
         <v>3</v>
@@ -4095,7 +4402,7 @@
         <v>97</v>
       </c>
       <c r="B79" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C79" t="s">
         <v>3</v>
@@ -4123,7 +4430,7 @@
         <v>3</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E81" s="5"/>
     </row>
@@ -4281,7 +4588,7 @@
         <v>3</v>
       </c>
       <c r="D95" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -4295,7 +4602,7 @@
         <v>3</v>
       </c>
       <c r="D96" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -4490,7 +4797,7 @@
         <v>133</v>
       </c>
       <c r="B114" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C114" t="s">
         <v>3</v>
@@ -4672,7 +4979,7 @@
         <v>151</v>
       </c>
       <c r="B130" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C130" t="s">
         <v>3</v>
@@ -4727,7 +5034,7 @@
         <v>159</v>
       </c>
       <c r="B135" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C135" t="s">
         <v>3</v>
@@ -4749,7 +5056,7 @@
         <v>161</v>
       </c>
       <c r="B137" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C137" t="s">
         <v>3</v>
@@ -4782,7 +5089,7 @@
         <v>168</v>
       </c>
       <c r="B140" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C140" t="s">
         <v>1</v>
@@ -4848,13 +5155,13 @@
         <v>187</v>
       </c>
       <c r="B146" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C146" t="s">
         <v>3</v>
       </c>
       <c r="D146" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -4890,7 +5197,7 @@
         <v>1</v>
       </c>
       <c r="D149" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -4904,7 +5211,7 @@
         <v>1</v>
       </c>
       <c r="D150" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -4918,7 +5225,7 @@
         <v>3</v>
       </c>
       <c r="D151" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -4932,7 +5239,7 @@
         <v>3</v>
       </c>
       <c r="D152" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="153" spans="1:4" s="5" customFormat="1">
@@ -4975,6 +5282,9 @@
       <c r="B156" t="s">
         <v>442</v>
       </c>
+      <c r="C156" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157">
@@ -4983,6 +5293,9 @@
       <c r="B157" t="s">
         <v>488</v>
       </c>
+      <c r="C157" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158">
@@ -4991,6 +5304,9 @@
       <c r="B158" t="s">
         <v>427</v>
       </c>
+      <c r="C158" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159">
@@ -4999,6 +5315,9 @@
       <c r="B159" t="s">
         <v>127</v>
       </c>
+      <c r="C159" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160">
@@ -5007,6 +5326,9 @@
       <c r="B160" t="s">
         <v>128</v>
       </c>
+      <c r="C160" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
@@ -5015,6 +5337,9 @@
       <c r="B161" t="s">
         <v>129</v>
       </c>
+      <c r="C161" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="162" spans="1:3" s="5" customFormat="1">
       <c r="A162" s="5">
@@ -5023,6 +5348,9 @@
       <c r="B162" s="5" t="s">
         <v>130</v>
       </c>
+      <c r="C162" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="163" spans="1:3" s="5" customFormat="1">
       <c r="A163" s="5">
@@ -5031,6 +5359,9 @@
       <c r="B163" s="5" t="s">
         <v>131</v>
       </c>
+      <c r="C163" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
@@ -5039,6 +5370,9 @@
       <c r="B164" t="s">
         <v>132</v>
       </c>
+      <c r="C164" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="165" spans="1:3" s="5" customFormat="1">
       <c r="A165" s="5">
@@ -5058,6 +5392,9 @@
       <c r="B166" t="s">
         <v>134</v>
       </c>
+      <c r="C166" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
@@ -5066,6 +5403,9 @@
       <c r="B167" t="s">
         <v>135</v>
       </c>
+      <c r="C167" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
@@ -5096,6 +5436,9 @@
       <c r="B170" t="s">
         <v>137</v>
       </c>
+      <c r="C170" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
@@ -5104,6 +5447,9 @@
       <c r="B171" t="s">
         <v>138</v>
       </c>
+      <c r="C171" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
@@ -5112,6 +5458,9 @@
       <c r="B172" t="s">
         <v>139</v>
       </c>
+      <c r="C172" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="173" spans="1:3" s="5" customFormat="1">
       <c r="A173" s="5">
@@ -5120,6 +5469,9 @@
       <c r="B173" s="5" t="s">
         <v>140</v>
       </c>
+      <c r="C173" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
@@ -5128,6 +5480,9 @@
       <c r="B174" t="s">
         <v>141</v>
       </c>
+      <c r="C174" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
@@ -5147,6 +5502,9 @@
       <c r="B176" t="s">
         <v>143</v>
       </c>
+      <c r="C176" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
@@ -5155,6 +5513,9 @@
       <c r="B177" t="s">
         <v>144</v>
       </c>
+      <c r="C177" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
@@ -5163,6 +5524,9 @@
       <c r="B178" t="s">
         <v>145</v>
       </c>
+      <c r="C178" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
@@ -5171,6 +5535,9 @@
       <c r="B179" t="s">
         <v>146</v>
       </c>
+      <c r="C179" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
@@ -5179,6 +5546,9 @@
       <c r="B180" t="s">
         <v>147</v>
       </c>
+      <c r="C180" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
@@ -5187,6 +5557,9 @@
       <c r="B181" t="s">
         <v>148</v>
       </c>
+      <c r="C181" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
@@ -5195,6 +5568,9 @@
       <c r="B182" t="s">
         <v>149</v>
       </c>
+      <c r="C182" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
@@ -5214,6 +5590,9 @@
       <c r="B184" t="s">
         <v>151</v>
       </c>
+      <c r="C184" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="185" spans="1:3" s="5" customFormat="1">
       <c r="A185" s="5">
@@ -5222,6 +5601,9 @@
       <c r="B185" s="5" t="s">
         <v>152</v>
       </c>
+      <c r="C185" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
@@ -5230,13 +5612,19 @@
       <c r="B186" t="s">
         <v>153</v>
       </c>
+      <c r="C186" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
         <v>241</v>
       </c>
       <c r="B187" t="s">
-        <v>573</v>
+        <v>572</v>
+      </c>
+      <c r="C187" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -5246,6 +5634,9 @@
       <c r="B188" t="s">
         <v>444</v>
       </c>
+      <c r="C188" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
@@ -5254,6 +5645,9 @@
       <c r="B189" t="s">
         <v>489</v>
       </c>
+      <c r="C189" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
@@ -5262,13 +5656,19 @@
       <c r="B190" t="s">
         <v>483</v>
       </c>
+      <c r="C190" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
         <v>248</v>
       </c>
       <c r="B191" t="s">
-        <v>504</v>
+        <v>503</v>
+      </c>
+      <c r="C191" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -5276,7 +5676,10 @@
         <v>249</v>
       </c>
       <c r="B192" t="s">
-        <v>593</v>
+        <v>592</v>
+      </c>
+      <c r="C192" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -5284,7 +5687,10 @@
         <v>250</v>
       </c>
       <c r="B193" t="s">
-        <v>575</v>
+        <v>574</v>
+      </c>
+      <c r="C193" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -5303,7 +5709,10 @@
         <v>252</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>597</v>
+        <v>596</v>
+      </c>
+      <c r="C195" s="5" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:3" s="5" customFormat="1">
@@ -5313,6 +5722,9 @@
       <c r="B196" s="5" t="s">
         <v>446</v>
       </c>
+      <c r="C196" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
@@ -5321,6 +5733,9 @@
       <c r="B197" t="s">
         <v>154</v>
       </c>
+      <c r="C197" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
@@ -5338,7 +5753,10 @@
         <v>266</v>
       </c>
       <c r="B199" t="s">
-        <v>609</v>
+        <v>608</v>
+      </c>
+      <c r="C199" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -5348,6 +5766,9 @@
       <c r="B200" t="s">
         <v>156</v>
       </c>
+      <c r="C200" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="201" spans="1:3" s="5" customFormat="1">
       <c r="A201" s="5">
@@ -5356,13 +5777,19 @@
       <c r="B201" s="5" t="s">
         <v>447</v>
       </c>
+      <c r="C201" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
         <v>270</v>
       </c>
       <c r="B202" t="s">
-        <v>589</v>
+        <v>588</v>
+      </c>
+      <c r="C202" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -5372,19 +5799,31 @@
       <c r="B203" t="s">
         <v>492</v>
       </c>
+      <c r="C203" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
         <v>273</v>
       </c>
       <c r="B204" t="s">
-        <v>582</v>
+        <v>581</v>
+      </c>
+      <c r="C204" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="5">
         <v>274</v>
       </c>
+      <c r="B205" s="18" t="s">
+        <v>946</v>
+      </c>
+      <c r="C205" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
@@ -5393,13 +5832,19 @@
       <c r="B206" t="s">
         <v>448</v>
       </c>
+      <c r="C206" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="207" spans="1:3" s="5" customFormat="1">
       <c r="A207" s="5">
         <v>278</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
+      </c>
+      <c r="C207" s="5" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -5418,7 +5863,10 @@
         <v>280</v>
       </c>
       <c r="B209" t="s">
-        <v>540</v>
+        <v>539</v>
+      </c>
+      <c r="C209" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="210" spans="1:3" s="5" customFormat="1">
@@ -5428,6 +5876,9 @@
       <c r="B210" s="5" t="s">
         <v>158</v>
       </c>
+      <c r="C210" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
@@ -5436,13 +5887,19 @@
       <c r="B211" t="s">
         <v>159</v>
       </c>
+      <c r="C211" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
         <v>284</v>
       </c>
       <c r="B212" t="s">
-        <v>561</v>
+        <v>560</v>
+      </c>
+      <c r="C212" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -5452,13 +5909,19 @@
       <c r="B213" t="s">
         <v>449</v>
       </c>
+      <c r="C213" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
         <v>286</v>
       </c>
       <c r="B214" t="s">
-        <v>601</v>
+        <v>600</v>
+      </c>
+      <c r="C214" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -5468,6 +5931,9 @@
       <c r="B215" t="s">
         <v>160</v>
       </c>
+      <c r="C215" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
@@ -5476,6 +5942,9 @@
       <c r="B216" t="s">
         <v>498</v>
       </c>
+      <c r="C216" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217">
@@ -5484,6 +5953,9 @@
       <c r="B217" t="s">
         <v>161</v>
       </c>
+      <c r="C217" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218">
@@ -5503,11 +5975,20 @@
       <c r="B219" t="s">
         <v>163</v>
       </c>
+      <c r="C219" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="5">
         <v>296</v>
       </c>
+      <c r="B220" s="18" t="s">
+        <v>947</v>
+      </c>
+      <c r="C220" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221">
@@ -5516,13 +5997,19 @@
       <c r="B221" t="s">
         <v>164</v>
       </c>
+      <c r="C221" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222">
         <v>298</v>
       </c>
       <c r="B222" t="s">
-        <v>539</v>
+        <v>538</v>
+      </c>
+      <c r="C222" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="223" spans="1:3" s="5" customFormat="1">
@@ -5532,6 +6019,9 @@
       <c r="B223" s="5" t="s">
         <v>471</v>
       </c>
+      <c r="C223" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224">
@@ -5540,6 +6030,9 @@
       <c r="B224" t="s">
         <v>165</v>
       </c>
+      <c r="C224" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="225" spans="1:5">
       <c r="A225">
@@ -5548,13 +6041,19 @@
       <c r="B225" t="s">
         <v>166</v>
       </c>
+      <c r="C225" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="226" spans="1:5" s="5" customFormat="1">
       <c r="A226" s="5">
         <v>302</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
+      </c>
+      <c r="C226" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -5562,13 +6061,22 @@
         <v>304</v>
       </c>
       <c r="B227" t="s">
-        <v>529</v>
+        <v>528</v>
+      </c>
+      <c r="C227" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="228" spans="1:5">
       <c r="A228" s="5">
         <v>306</v>
       </c>
+      <c r="B228" s="18" t="s">
+        <v>948</v>
+      </c>
+      <c r="C228" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="229" spans="1:5">
       <c r="A229">
@@ -5577,6 +6085,9 @@
       <c r="B229" t="s">
         <v>450</v>
       </c>
+      <c r="C229" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="230" spans="1:5">
       <c r="A230">
@@ -5596,7 +6107,9 @@
       <c r="B231" t="s">
         <v>168</v>
       </c>
-      <c r="C231"/>
+      <c r="C231" t="s">
+        <v>3</v>
+      </c>
       <c r="D231"/>
       <c r="E231"/>
     </row>
@@ -5605,7 +6118,10 @@
         <v>311</v>
       </c>
       <c r="B232" t="s">
-        <v>603</v>
+        <v>602</v>
+      </c>
+      <c r="C232" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -5624,7 +6140,10 @@
         <v>314</v>
       </c>
       <c r="B234" t="s">
-        <v>580</v>
+        <v>579</v>
+      </c>
+      <c r="C234" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="235" spans="1:5" s="5" customFormat="1">
@@ -5634,6 +6153,9 @@
       <c r="B235" s="5" t="s">
         <v>170</v>
       </c>
+      <c r="C235" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="236" spans="1:5">
       <c r="A236">
@@ -5642,13 +6164,19 @@
       <c r="B236" t="s">
         <v>171</v>
       </c>
+      <c r="C236" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="237" spans="1:5" s="5" customFormat="1">
       <c r="A237" s="5">
         <v>317</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
+      </c>
+      <c r="C237" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -5658,6 +6186,9 @@
       <c r="B238" t="s">
         <v>172</v>
       </c>
+      <c r="C238" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="239" spans="1:5">
       <c r="A239">
@@ -5675,7 +6206,10 @@
         <v>325</v>
       </c>
       <c r="B240" t="s">
-        <v>585</v>
+        <v>584</v>
+      </c>
+      <c r="C240" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -5707,6 +6241,9 @@
       <c r="B243" t="s">
         <v>174</v>
       </c>
+      <c r="C243" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="244" spans="1:5" s="5" customFormat="1">
       <c r="A244" s="5">
@@ -5715,6 +6252,9 @@
       <c r="B244" s="5" t="s">
         <v>175</v>
       </c>
+      <c r="C244" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="245" spans="1:5">
       <c r="A245">
@@ -5723,13 +6263,19 @@
       <c r="B245" t="s">
         <v>176</v>
       </c>
+      <c r="C245" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="246" spans="1:5">
       <c r="A246">
         <v>333</v>
       </c>
       <c r="B246" t="s">
-        <v>628</v>
+        <v>627</v>
+      </c>
+      <c r="C246" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -5739,6 +6285,9 @@
       <c r="B247" t="s">
         <v>177</v>
       </c>
+      <c r="C247" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="248" spans="1:5">
       <c r="A248">
@@ -5747,6 +6296,9 @@
       <c r="B248" t="s">
         <v>178</v>
       </c>
+      <c r="C248" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="249" spans="1:5" s="5" customFormat="1">
       <c r="A249">
@@ -5777,7 +6329,10 @@
         <v>339</v>
       </c>
       <c r="B251" t="s">
-        <v>584</v>
+        <v>583</v>
+      </c>
+      <c r="C251" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -5787,6 +6342,9 @@
       <c r="B252" t="s">
         <v>453</v>
       </c>
+      <c r="C252" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="253" spans="1:5" s="5" customFormat="1">
       <c r="A253" s="5">
@@ -5795,6 +6353,9 @@
       <c r="B253" s="5" t="s">
         <v>181</v>
       </c>
+      <c r="C253" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="254" spans="1:5">
       <c r="A254">
@@ -5814,13 +6375,19 @@
       <c r="B255" t="s">
         <v>183</v>
       </c>
+      <c r="C255" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="256" spans="1:5" s="5" customFormat="1">
       <c r="A256" s="5">
         <v>346</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
+      </c>
+      <c r="C256" s="5" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -5830,6 +6397,9 @@
       <c r="B257" t="s">
         <v>184</v>
       </c>
+      <c r="C257" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="258" spans="1:5">
       <c r="A258">
@@ -5838,13 +6408,19 @@
       <c r="B258" t="s">
         <v>454</v>
       </c>
+      <c r="C258" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="259" spans="1:5">
       <c r="A259">
         <v>349</v>
       </c>
       <c r="B259" t="s">
-        <v>588</v>
+        <v>587</v>
+      </c>
+      <c r="C259" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -5854,13 +6430,19 @@
       <c r="B260" t="s">
         <v>185</v>
       </c>
+      <c r="C260" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="261" spans="1:5">
       <c r="A261">
         <v>351</v>
       </c>
       <c r="B261" t="s">
-        <v>562</v>
+        <v>561</v>
+      </c>
+      <c r="C261" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -5868,9 +6450,11 @@
         <v>353</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>509</v>
-      </c>
-      <c r="C262" s="5"/>
+        <v>508</v>
+      </c>
+      <c r="C262" t="s">
+        <v>3</v>
+      </c>
       <c r="D262" s="5"/>
       <c r="E262" s="5"/>
     </row>
@@ -5881,6 +6465,9 @@
       <c r="B263" s="5" t="s">
         <v>186</v>
       </c>
+      <c r="C263" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="264" spans="1:5" s="5" customFormat="1">
       <c r="A264" s="5">
@@ -5898,7 +6485,10 @@
         <v>358</v>
       </c>
       <c r="B265" t="s">
-        <v>569</v>
+        <v>568</v>
+      </c>
+      <c r="C265" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="266" spans="1:5" s="5" customFormat="1">
@@ -5908,13 +6498,19 @@
       <c r="B266" s="5" t="s">
         <v>476</v>
       </c>
+      <c r="C266" s="5" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="267" spans="1:5">
       <c r="A267">
         <v>360</v>
       </c>
       <c r="B267" t="s">
-        <v>532</v>
+        <v>531</v>
+      </c>
+      <c r="C267" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -5922,7 +6518,10 @@
         <v>362</v>
       </c>
       <c r="B268" t="s">
-        <v>623</v>
+        <v>622</v>
+      </c>
+      <c r="C268" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -5932,13 +6531,19 @@
       <c r="B269" t="s">
         <v>188</v>
       </c>
+      <c r="C269" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="270" spans="1:5" s="5" customFormat="1">
       <c r="A270" s="5">
         <v>366</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
+      </c>
+      <c r="C270" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -5990,7 +6595,10 @@
         <v>375</v>
       </c>
       <c r="B275" t="s">
-        <v>567</v>
+        <v>566</v>
+      </c>
+      <c r="C275" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -6022,13 +6630,19 @@
       <c r="B278" t="s">
         <v>194</v>
       </c>
+      <c r="C278" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="279" spans="1:5">
       <c r="A279">
         <v>379</v>
       </c>
       <c r="B279" t="s">
-        <v>551</v>
+        <v>550</v>
+      </c>
+      <c r="C279" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -6038,6 +6652,9 @@
       <c r="B280" t="s">
         <v>195</v>
       </c>
+      <c r="C280" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="281" spans="1:5">
       <c r="A281">
@@ -6046,13 +6663,19 @@
       <c r="B281" t="s">
         <v>196</v>
       </c>
+      <c r="C281" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="282" spans="1:5">
       <c r="A282">
         <v>383</v>
       </c>
       <c r="B282" t="s">
-        <v>640</v>
+        <v>639</v>
+      </c>
+      <c r="C282" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -6062,7 +6685,9 @@
       <c r="B283" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="C283" s="5"/>
+      <c r="C283" t="s">
+        <v>3</v>
+      </c>
       <c r="D283" s="5"/>
       <c r="E283" s="5"/>
     </row>
@@ -6071,7 +6696,10 @@
         <v>386</v>
       </c>
       <c r="B284" t="s">
-        <v>570</v>
+        <v>569</v>
+      </c>
+      <c r="C284" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -6081,11 +6709,20 @@
       <c r="B285" t="s">
         <v>197</v>
       </c>
+      <c r="C285" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="286" spans="1:5">
       <c r="A286" s="5">
         <v>388</v>
       </c>
+      <c r="B286" s="18" t="s">
+        <v>949</v>
+      </c>
+      <c r="C286" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="287" spans="1:5">
       <c r="A287">
@@ -6103,7 +6740,10 @@
         <v>393</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>613</v>
+        <v>612</v>
+      </c>
+      <c r="C288" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="289" spans="1:3" s="5" customFormat="1">
@@ -6113,6 +6753,9 @@
       <c r="B289" s="5" t="s">
         <v>199</v>
       </c>
+      <c r="C289" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290">
@@ -6130,7 +6773,10 @@
         <v>397</v>
       </c>
       <c r="B291" t="s">
-        <v>636</v>
+        <v>635</v>
+      </c>
+      <c r="C291" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -6138,7 +6784,10 @@
         <v>398</v>
       </c>
       <c r="B292" t="s">
-        <v>563</v>
+        <v>562</v>
+      </c>
+      <c r="C292" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="293" spans="1:3" s="5" customFormat="1">
@@ -6148,6 +6797,9 @@
       <c r="B293" s="5" t="s">
         <v>201</v>
       </c>
+      <c r="C293" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294">
@@ -6156,6 +6808,9 @@
       <c r="B294" t="s">
         <v>202</v>
       </c>
+      <c r="C294" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295">
@@ -6186,6 +6841,9 @@
       <c r="B297" t="s">
         <v>205</v>
       </c>
+      <c r="C297" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298">
@@ -6194,13 +6852,19 @@
       <c r="B298" t="s">
         <v>206</v>
       </c>
+      <c r="C298" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299">
         <v>408</v>
       </c>
       <c r="B299" t="s">
-        <v>599</v>
+        <v>598</v>
+      </c>
+      <c r="C299" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -6221,6 +6885,9 @@
       <c r="B301" t="s">
         <v>208</v>
       </c>
+      <c r="C301" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302">
@@ -6262,6 +6929,9 @@
       <c r="B305" t="s">
         <v>211</v>
       </c>
+      <c r="C305" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306">
@@ -6270,6 +6940,9 @@
       <c r="B306" t="s">
         <v>212</v>
       </c>
+      <c r="C306" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="307" spans="1:3" s="5" customFormat="1">
       <c r="A307" s="5">
@@ -6278,24 +6951,42 @@
       <c r="B307" s="5" t="s">
         <v>213</v>
       </c>
+      <c r="C307" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" s="5">
         <v>418</v>
       </c>
+      <c r="B308" s="18" t="s">
+        <v>950</v>
+      </c>
+      <c r="C308" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="309" spans="1:3" s="5" customFormat="1">
       <c r="A309" s="5">
         <v>419</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>614</v>
+        <v>613</v>
+      </c>
+      <c r="C309" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" s="5">
         <v>420</v>
       </c>
+      <c r="B310" s="18" t="s">
+        <v>951</v>
+      </c>
+      <c r="C310" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311">
@@ -6324,20 +7015,32 @@
         <v>426</v>
       </c>
       <c r="B313" t="s">
-        <v>615</v>
+        <v>614</v>
+      </c>
+      <c r="C313" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" s="5">
         <v>427</v>
       </c>
+      <c r="B314" s="18" t="s">
+        <v>952</v>
+      </c>
+      <c r="C314" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315">
         <v>428</v>
       </c>
       <c r="B315" t="s">
-        <v>616</v>
+        <v>615</v>
+      </c>
+      <c r="C315" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -6358,13 +7061,19 @@
       <c r="B317" t="s">
         <v>217</v>
       </c>
+      <c r="C317" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318">
         <v>431</v>
       </c>
       <c r="B318" t="s">
-        <v>625</v>
+        <v>624</v>
+      </c>
+      <c r="C318" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -6383,7 +7092,10 @@
         <v>433</v>
       </c>
       <c r="B320" t="s">
-        <v>556</v>
+        <v>555</v>
+      </c>
+      <c r="C320" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -6393,6 +7105,9 @@
       <c r="B321" t="s">
         <v>219</v>
       </c>
+      <c r="C321" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322">
@@ -6401,6 +7116,9 @@
       <c r="B322" t="s">
         <v>220</v>
       </c>
+      <c r="C322" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323">
@@ -6409,6 +7127,9 @@
       <c r="B323" t="s">
         <v>221</v>
       </c>
+      <c r="C323" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324">
@@ -6426,7 +7147,10 @@
         <v>443</v>
       </c>
       <c r="B325" t="s">
-        <v>611</v>
+        <v>610</v>
+      </c>
+      <c r="C325" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="326" spans="1:3" s="5" customFormat="1">
@@ -6434,7 +7158,10 @@
         <v>444</v>
       </c>
       <c r="B326" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
+      </c>
+      <c r="C326" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -6444,6 +7171,9 @@
       <c r="B327" t="s">
         <v>223</v>
       </c>
+      <c r="C327" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328">
@@ -6463,6 +7193,9 @@
       <c r="B329" t="s">
         <v>225</v>
       </c>
+      <c r="C329" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330">
@@ -6471,6 +7204,9 @@
       <c r="B330" t="s">
         <v>226</v>
       </c>
+      <c r="C330" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331">
@@ -6521,7 +7257,10 @@
         <v>457</v>
       </c>
       <c r="B335" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
+      </c>
+      <c r="C335" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -6561,6 +7300,12 @@
       <c r="A339" s="5">
         <v>462</v>
       </c>
+      <c r="B339" s="18" t="s">
+        <v>953</v>
+      </c>
+      <c r="C339" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340">
@@ -6569,6 +7314,9 @@
       <c r="B340" t="s">
         <v>234</v>
       </c>
+      <c r="C340" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341">
@@ -6588,13 +7336,19 @@
       <c r="B342" t="s">
         <v>480</v>
       </c>
+      <c r="C342" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343">
         <v>468</v>
       </c>
       <c r="B343" t="s">
-        <v>595</v>
+        <v>594</v>
+      </c>
+      <c r="C343" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -6602,7 +7356,10 @@
         <v>470</v>
       </c>
       <c r="B344" t="s">
-        <v>622</v>
+        <v>621</v>
+      </c>
+      <c r="C344" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -6610,7 +7367,10 @@
         <v>471</v>
       </c>
       <c r="B345" t="s">
-        <v>510</v>
+        <v>509</v>
+      </c>
+      <c r="C345" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -6640,7 +7400,10 @@
         <v>475</v>
       </c>
       <c r="B348" t="s">
-        <v>549</v>
+        <v>548</v>
+      </c>
+      <c r="C348" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -6648,7 +7411,10 @@
         <v>477</v>
       </c>
       <c r="B349" t="s">
-        <v>592</v>
+        <v>591</v>
+      </c>
+      <c r="C349" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -6658,6 +7424,9 @@
       <c r="B350" t="s">
         <v>238</v>
       </c>
+      <c r="C350" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="351" spans="1:3">
       <c r="A351">
@@ -6666,13 +7435,19 @@
       <c r="B351" t="s">
         <v>462</v>
       </c>
+      <c r="C351" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352">
         <v>484</v>
       </c>
       <c r="B352" t="s">
-        <v>545</v>
+        <v>544</v>
+      </c>
+      <c r="C352" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -6704,13 +7479,19 @@
       <c r="B355" s="5" t="s">
         <v>464</v>
       </c>
+      <c r="C355" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356">
         <v>490</v>
       </c>
       <c r="B356" t="s">
-        <v>612</v>
+        <v>611</v>
+      </c>
+      <c r="C356" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -6720,6 +7501,9 @@
       <c r="B357" t="s">
         <v>241</v>
       </c>
+      <c r="C357" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358">
@@ -6728,13 +7512,19 @@
       <c r="B358" t="s">
         <v>242</v>
       </c>
+      <c r="C358" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359">
         <v>496</v>
       </c>
       <c r="B359" t="s">
-        <v>605</v>
+        <v>604</v>
+      </c>
+      <c r="C359" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -6742,7 +7532,10 @@
         <v>497</v>
       </c>
       <c r="B360" t="s">
-        <v>524</v>
+        <v>523</v>
+      </c>
+      <c r="C360" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -6752,6 +7545,9 @@
       <c r="B361" t="s">
         <v>243</v>
       </c>
+      <c r="C361" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362">
@@ -6780,7 +7576,10 @@
         <v>505</v>
       </c>
       <c r="B364" t="s">
-        <v>606</v>
+        <v>605</v>
+      </c>
+      <c r="C364" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -6788,7 +7587,10 @@
         <v>510</v>
       </c>
       <c r="B365" t="s">
-        <v>635</v>
+        <v>634</v>
+      </c>
+      <c r="C365" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -6831,6 +7633,9 @@
       <c r="B369" t="s">
         <v>249</v>
       </c>
+      <c r="C369" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370">
@@ -6839,6 +7644,9 @@
       <c r="B370" t="s">
         <v>250</v>
       </c>
+      <c r="C370" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371">
@@ -6847,6 +7655,9 @@
       <c r="B371" t="s">
         <v>251</v>
       </c>
+      <c r="C371" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="372" spans="1:3" s="5" customFormat="1">
       <c r="A372" s="5">
@@ -6855,6 +7666,9 @@
       <c r="B372" s="5" t="s">
         <v>252</v>
       </c>
+      <c r="C372" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="373" spans="1:3">
       <c r="A373">
@@ -6874,13 +7688,19 @@
       <c r="B374" t="s">
         <v>469</v>
       </c>
+      <c r="C374" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="375" spans="1:3" s="5" customFormat="1">
       <c r="A375" s="5">
         <v>528</v>
       </c>
       <c r="B375" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
+      </c>
+      <c r="C375" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -6888,7 +7708,10 @@
         <v>529</v>
       </c>
       <c r="B376" t="s">
-        <v>632</v>
+        <v>631</v>
+      </c>
+      <c r="C376" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -6907,7 +7730,10 @@
         <v>535</v>
       </c>
       <c r="B378" t="s">
-        <v>620</v>
+        <v>619</v>
+      </c>
+      <c r="C378" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -6925,6 +7751,12 @@
       <c r="A380" s="5">
         <v>539</v>
       </c>
+      <c r="B380" s="18" t="s">
+        <v>954</v>
+      </c>
+      <c r="C380" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="381" spans="1:3">
       <c r="A381">
@@ -6933,6 +7765,9 @@
       <c r="B381" t="s">
         <v>256</v>
       </c>
+      <c r="C381" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="382" spans="1:3">
       <c r="A382">
@@ -6952,13 +7787,19 @@
       <c r="B383" t="s">
         <v>258</v>
       </c>
+      <c r="C383" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="384" spans="1:3">
       <c r="A384">
         <v>545</v>
       </c>
       <c r="B384" t="s">
-        <v>631</v>
+        <v>630</v>
+      </c>
+      <c r="C384" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -6988,7 +7829,10 @@
         <v>549</v>
       </c>
       <c r="B387" t="s">
-        <v>604</v>
+        <v>603</v>
+      </c>
+      <c r="C387" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="388" spans="1:3" s="5" customFormat="1">
@@ -6996,7 +7840,10 @@
         <v>551</v>
       </c>
       <c r="B388" s="5" t="s">
-        <v>527</v>
+        <v>526</v>
+      </c>
+      <c r="C388" s="5" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:3" s="5" customFormat="1">
@@ -7006,6 +7853,9 @@
       <c r="B389" s="5" t="s">
         <v>484</v>
       </c>
+      <c r="C389" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="390" spans="1:3">
       <c r="A390">
@@ -7023,7 +7873,10 @@
         <v>557</v>
       </c>
       <c r="B391" t="s">
-        <v>618</v>
+        <v>617</v>
+      </c>
+      <c r="C391" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -7031,7 +7884,10 @@
         <v>558</v>
       </c>
       <c r="B392" t="s">
-        <v>576</v>
+        <v>575</v>
+      </c>
+      <c r="C392" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="393" spans="1:3" s="5" customFormat="1">
@@ -7041,13 +7897,19 @@
       <c r="B393" s="5" t="s">
         <v>431</v>
       </c>
+      <c r="C393" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="394" spans="1:3" s="5" customFormat="1">
       <c r="A394" s="5">
         <v>562</v>
       </c>
       <c r="B394" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
+      </c>
+      <c r="C394" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -7057,13 +7919,19 @@
       <c r="B395" t="s">
         <v>262</v>
       </c>
+      <c r="C395" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="396" spans="1:3">
       <c r="A396">
         <v>568</v>
       </c>
       <c r="B396" t="s">
-        <v>574</v>
+        <v>573</v>
+      </c>
+      <c r="C396" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -7073,13 +7941,19 @@
       <c r="B397" t="s">
         <v>263</v>
       </c>
+      <c r="C397" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="398" spans="1:3">
       <c r="A398">
         <v>575</v>
       </c>
       <c r="B398" t="s">
-        <v>641</v>
+        <v>640</v>
+      </c>
+      <c r="C398" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -7109,20 +7983,32 @@
         <v>591</v>
       </c>
       <c r="B401" t="s">
-        <v>523</v>
+        <v>522</v>
+      </c>
+      <c r="C401" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="402" spans="1:3">
       <c r="A402" s="5">
         <v>593</v>
       </c>
+      <c r="B402" s="18" t="s">
+        <v>955</v>
+      </c>
+      <c r="C402" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="403" spans="1:3">
       <c r="A403">
         <v>597</v>
       </c>
       <c r="B403" t="s">
-        <v>610</v>
+        <v>609</v>
+      </c>
+      <c r="C403" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -7132,13 +8018,19 @@
       <c r="B404" t="s">
         <v>266</v>
       </c>
+      <c r="C404" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="405" spans="1:3">
       <c r="A405">
         <v>612</v>
       </c>
       <c r="B405" t="s">
-        <v>624</v>
+        <v>623</v>
+      </c>
+      <c r="C405" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -7148,6 +8040,9 @@
       <c r="B406" t="s">
         <v>493</v>
       </c>
+      <c r="C406" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="407" spans="1:3">
       <c r="A407">
@@ -7167,6 +8062,9 @@
       <c r="B408" t="s">
         <v>268</v>
       </c>
+      <c r="C408" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="409" spans="1:3">
       <c r="A409">
@@ -7175,6 +8073,9 @@
       <c r="B409" t="s">
         <v>269</v>
       </c>
+      <c r="C409" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="410" spans="1:3">
       <c r="A410">
@@ -7191,6 +8092,12 @@
       <c r="A411" s="5">
         <v>629</v>
       </c>
+      <c r="B411" s="18" t="s">
+        <v>956</v>
+      </c>
+      <c r="C411" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="412" spans="1:3">
       <c r="A412">
@@ -7210,13 +8117,19 @@
       <c r="B413" t="s">
         <v>272</v>
       </c>
+      <c r="C413" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="414" spans="1:3" s="5" customFormat="1">
       <c r="A414" s="5">
         <v>636</v>
       </c>
       <c r="B414" s="5" t="s">
-        <v>587</v>
+        <v>586</v>
+      </c>
+      <c r="C414" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -7246,7 +8159,10 @@
         <v>640</v>
       </c>
       <c r="B417" t="s">
-        <v>520</v>
+        <v>519</v>
+      </c>
+      <c r="C417" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="418" spans="1:3" s="5" customFormat="1">
@@ -7256,6 +8172,9 @@
       <c r="B418" s="5" t="s">
         <v>473</v>
       </c>
+      <c r="C418" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="419" spans="1:3">
       <c r="A419">
@@ -7264,6 +8183,9 @@
       <c r="B419" t="s">
         <v>275</v>
       </c>
+      <c r="C419" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="420" spans="1:3">
       <c r="A420">
@@ -7327,13 +8249,19 @@
       <c r="B425" t="s">
         <v>281</v>
       </c>
+      <c r="C425" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="426" spans="1:3">
       <c r="A426">
         <v>660</v>
       </c>
       <c r="B426" t="s">
-        <v>525</v>
+        <v>524</v>
+      </c>
+      <c r="C426" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -7387,6 +8315,9 @@
       <c r="B431" t="s">
         <v>286</v>
       </c>
+      <c r="C431" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="432" spans="1:3">
       <c r="A432">
@@ -7406,13 +8337,19 @@
       <c r="B433" t="s">
         <v>288</v>
       </c>
+      <c r="C433" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="434" spans="1:3">
       <c r="A434">
         <v>676</v>
       </c>
       <c r="B434" t="s">
-        <v>633</v>
+        <v>632</v>
+      </c>
+      <c r="C434" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -7422,6 +8359,9 @@
       <c r="B435" t="s">
         <v>289</v>
       </c>
+      <c r="C435" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="436" spans="1:3" s="5" customFormat="1">
       <c r="A436" s="5">
@@ -7430,13 +8370,19 @@
       <c r="B436" s="5" t="s">
         <v>479</v>
       </c>
+      <c r="C436" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="437" spans="1:3">
       <c r="A437">
         <v>680</v>
       </c>
       <c r="B437" t="s">
-        <v>591</v>
+        <v>590</v>
+      </c>
+      <c r="C437" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -7446,13 +8392,19 @@
       <c r="B438" t="s">
         <v>500</v>
       </c>
+      <c r="C438" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="439" spans="1:3">
       <c r="A439">
         <v>683</v>
       </c>
       <c r="B439" t="s">
-        <v>544</v>
+        <v>543</v>
+      </c>
+      <c r="C439" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -7462,6 +8414,9 @@
       <c r="B440" t="s">
         <v>290</v>
       </c>
+      <c r="C440" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="441" spans="1:3">
       <c r="A441">
@@ -7470,13 +8425,19 @@
       <c r="B441" t="s">
         <v>291</v>
       </c>
+      <c r="C441" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="442" spans="1:3">
       <c r="A442">
         <v>686</v>
       </c>
       <c r="B442" t="s">
-        <v>514</v>
+        <v>513</v>
+      </c>
+      <c r="C442" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -7497,6 +8458,9 @@
       <c r="B444" t="s">
         <v>293</v>
       </c>
+      <c r="C444" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="445" spans="1:3">
       <c r="A445">
@@ -7505,13 +8469,19 @@
       <c r="B445" t="s">
         <v>294</v>
       </c>
+      <c r="C445" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="446" spans="1:3">
       <c r="A446">
         <v>691</v>
       </c>
       <c r="B446" t="s">
-        <v>600</v>
+        <v>599</v>
+      </c>
+      <c r="C446" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="447" spans="1:3" s="5" customFormat="1">
@@ -7521,13 +8491,19 @@
       <c r="B447" s="5" t="s">
         <v>295</v>
       </c>
+      <c r="C447" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="448" spans="1:3">
       <c r="A448">
         <v>694</v>
       </c>
       <c r="B448" t="s">
-        <v>594</v>
+        <v>593</v>
+      </c>
+      <c r="C448" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="449" spans="1:3" s="5" customFormat="1">
@@ -7579,7 +8555,10 @@
         <v>702</v>
       </c>
       <c r="B453" t="s">
-        <v>508</v>
+        <v>507</v>
+      </c>
+      <c r="C453" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -7600,13 +8579,19 @@
       <c r="B455" t="s">
         <v>301</v>
       </c>
+      <c r="C455" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="456" spans="1:3">
       <c r="A456">
         <v>708</v>
       </c>
       <c r="B456" t="s">
-        <v>515</v>
+        <v>514</v>
+      </c>
+      <c r="C456" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -7614,7 +8599,10 @@
         <v>710</v>
       </c>
       <c r="B457" t="s">
-        <v>543</v>
+        <v>542</v>
+      </c>
+      <c r="C457" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -7654,6 +8642,12 @@
       <c r="A461" s="5">
         <v>715</v>
       </c>
+      <c r="B461" s="18" t="s">
+        <v>957</v>
+      </c>
+      <c r="C461" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="462" spans="1:3">
       <c r="A462">
@@ -7695,13 +8689,19 @@
       <c r="B465" t="s">
         <v>308</v>
       </c>
+      <c r="C465" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="466" spans="1:3">
       <c r="A466">
         <v>722</v>
       </c>
       <c r="B466" t="s">
-        <v>518</v>
+        <v>517</v>
+      </c>
+      <c r="C466" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -7709,7 +8709,10 @@
         <v>723</v>
       </c>
       <c r="B467" t="s">
-        <v>548</v>
+        <v>547</v>
+      </c>
+      <c r="C467" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -7717,7 +8720,10 @@
         <v>724</v>
       </c>
       <c r="B468" t="s">
-        <v>637</v>
+        <v>636</v>
+      </c>
+      <c r="C468" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:3" s="5" customFormat="1">
@@ -7725,7 +8731,10 @@
         <v>726</v>
       </c>
       <c r="B469" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
+      </c>
+      <c r="C469" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="470" spans="1:3" s="5" customFormat="1">
@@ -7735,13 +8744,19 @@
       <c r="B470" s="5" t="s">
         <v>478</v>
       </c>
+      <c r="C470" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="471" spans="1:3" s="5" customFormat="1">
       <c r="A471" s="5">
         <v>729</v>
       </c>
       <c r="B471" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
+      </c>
+      <c r="C471" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="472" spans="1:3" s="5" customFormat="1">
@@ -7751,6 +8766,9 @@
       <c r="B472" s="5" t="s">
         <v>475</v>
       </c>
+      <c r="C472" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="473" spans="1:3">
       <c r="A473">
@@ -7770,6 +8788,9 @@
       <c r="B474" t="s">
         <v>501</v>
       </c>
+      <c r="C474" s="5" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="475" spans="1:3">
       <c r="A475">
@@ -7789,13 +8810,19 @@
       <c r="B476" t="s">
         <v>494</v>
       </c>
+      <c r="C476" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="477" spans="1:3">
       <c r="A477">
         <v>737</v>
       </c>
       <c r="B477" t="s">
-        <v>528</v>
+        <v>527</v>
+      </c>
+      <c r="C477" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -7805,6 +8832,9 @@
       <c r="B478" t="s">
         <v>311</v>
       </c>
+      <c r="C478" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="479" spans="1:3">
       <c r="A479">
@@ -7833,7 +8863,10 @@
         <v>742</v>
       </c>
       <c r="B481" t="s">
-        <v>541</v>
+        <v>540</v>
+      </c>
+      <c r="C481" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="482" spans="1:3" s="5" customFormat="1">
@@ -7843,6 +8876,9 @@
       <c r="B482" s="5" t="s">
         <v>314</v>
       </c>
+      <c r="C482" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="483" spans="1:3">
       <c r="A483">
@@ -7884,16 +8920,31 @@
       <c r="B486" s="5" t="s">
         <v>463</v>
       </c>
+      <c r="C486" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="487" spans="1:3">
       <c r="A487" s="5">
         <v>756</v>
       </c>
+      <c r="B487" s="18" t="s">
+        <v>957</v>
+      </c>
+      <c r="C487" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="488" spans="1:3">
       <c r="A488" s="5">
         <v>759</v>
       </c>
+      <c r="B488" s="18" t="s">
+        <v>958</v>
+      </c>
+      <c r="C488" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="489" spans="1:3">
       <c r="A489">
@@ -7924,6 +8975,9 @@
       <c r="B491" t="s">
         <v>320</v>
       </c>
+      <c r="C491" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="492" spans="1:3">
       <c r="A492">
@@ -7932,6 +8986,9 @@
       <c r="B492" t="s">
         <v>321</v>
       </c>
+      <c r="C492" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="493" spans="1:3">
       <c r="A493">
@@ -7940,6 +8997,9 @@
       <c r="B493" t="s">
         <v>322</v>
       </c>
+      <c r="C493" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="494" spans="1:3">
       <c r="A494">
@@ -7959,6 +9019,9 @@
       <c r="B495" t="s">
         <v>491</v>
       </c>
+      <c r="C495" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="496" spans="1:3">
       <c r="A496">
@@ -7967,13 +9030,19 @@
       <c r="B496" t="s">
         <v>324</v>
       </c>
+      <c r="C496" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="497" spans="1:3">
       <c r="A497">
         <v>772</v>
       </c>
       <c r="B497" t="s">
-        <v>531</v>
+        <v>530</v>
+      </c>
+      <c r="C497" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -7983,6 +9052,9 @@
       <c r="B498" t="s">
         <v>325</v>
       </c>
+      <c r="C498" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="499" spans="1:3">
       <c r="A499">
@@ -7991,13 +9063,19 @@
       <c r="B499" t="s">
         <v>490</v>
       </c>
+      <c r="C499" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="500" spans="1:3">
       <c r="A500">
         <v>776</v>
       </c>
       <c r="B500" t="s">
-        <v>554</v>
+        <v>553</v>
+      </c>
+      <c r="C500" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="501" spans="1:3" s="5" customFormat="1">
@@ -8007,11 +9085,20 @@
       <c r="B501" s="5" t="s">
         <v>465</v>
       </c>
+      <c r="C501" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="502" spans="1:3">
       <c r="A502" s="5">
         <v>778</v>
       </c>
+      <c r="B502" s="18" t="s">
+        <v>959</v>
+      </c>
+      <c r="C502" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="503" spans="1:3">
       <c r="A503">
@@ -8031,6 +9118,9 @@
       <c r="B504" t="s">
         <v>327</v>
       </c>
+      <c r="C504" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="505" spans="1:3">
       <c r="A505">
@@ -8039,6 +9129,9 @@
       <c r="B505" t="s">
         <v>328</v>
       </c>
+      <c r="C505" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="506" spans="1:3">
       <c r="A506">
@@ -8058,18 +9151,30 @@
       <c r="B507" s="5" t="s">
         <v>499</v>
       </c>
+      <c r="C507" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="508" spans="1:3">
       <c r="A508" s="5">
         <v>790</v>
       </c>
+      <c r="B508" s="18" t="s">
+        <v>960</v>
+      </c>
+      <c r="C508" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="509" spans="1:3">
       <c r="A509">
         <v>791</v>
       </c>
       <c r="B509" t="s">
-        <v>602</v>
+        <v>601</v>
+      </c>
+      <c r="C509" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="510" spans="1:3" s="5" customFormat="1">
@@ -8077,7 +9182,10 @@
         <v>792</v>
       </c>
       <c r="B510" s="5" t="s">
-        <v>530</v>
+        <v>529</v>
+      </c>
+      <c r="C510" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="511" spans="1:3" s="5" customFormat="1">
@@ -8085,7 +9193,10 @@
         <v>794</v>
       </c>
       <c r="B511" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
+      </c>
+      <c r="C511" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -8104,9 +9215,11 @@
         <v>799</v>
       </c>
       <c r="B513" t="s">
-        <v>560</v>
-      </c>
-      <c r="C513"/>
+        <v>559</v>
+      </c>
+      <c r="C513" t="s">
+        <v>3</v>
+      </c>
       <c r="D513"/>
       <c r="E513"/>
     </row>
@@ -8117,13 +9230,19 @@
       <c r="B514" t="s">
         <v>331</v>
       </c>
+      <c r="C514" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="515" spans="1:5">
       <c r="A515">
         <v>803</v>
       </c>
       <c r="B515" t="s">
-        <v>503</v>
+        <v>502</v>
+      </c>
+      <c r="C515" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="516" spans="1:5">
@@ -8131,13 +9250,22 @@
         <v>805</v>
       </c>
       <c r="B516" t="s">
-        <v>619</v>
+        <v>618</v>
+      </c>
+      <c r="C516" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="517" spans="1:5">
       <c r="A517" s="5">
         <v>807</v>
       </c>
+      <c r="B517" s="18" t="s">
+        <v>961</v>
+      </c>
+      <c r="C517" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="518" spans="1:5">
       <c r="A518">
@@ -8146,6 +9274,9 @@
       <c r="B518" t="s">
         <v>466</v>
       </c>
+      <c r="C518" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="519" spans="1:5">
       <c r="A519">
@@ -8186,7 +9317,10 @@
         <v>817</v>
       </c>
       <c r="B522" t="s">
-        <v>564</v>
+        <v>563</v>
+      </c>
+      <c r="C522" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="523" spans="1:5" s="5" customFormat="1">
@@ -8196,6 +9330,9 @@
       <c r="B523" s="5" t="s">
         <v>485</v>
       </c>
+      <c r="C523" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="524" spans="1:5">
       <c r="A524">
@@ -8213,7 +9350,10 @@
         <v>824</v>
       </c>
       <c r="B525" t="s">
-        <v>608</v>
+        <v>607</v>
+      </c>
+      <c r="C525" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:5">
@@ -8221,7 +9361,10 @@
         <v>825</v>
       </c>
       <c r="B526" t="s">
-        <v>598</v>
+        <v>597</v>
+      </c>
+      <c r="C526" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="527" spans="1:5">
@@ -8264,6 +9407,9 @@
       <c r="B530" s="5" t="s">
         <v>474</v>
       </c>
+      <c r="C530" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="531" spans="1:3">
       <c r="A531">
@@ -8281,7 +9427,10 @@
         <v>835</v>
       </c>
       <c r="B532" t="s">
-        <v>552</v>
+        <v>551</v>
+      </c>
+      <c r="C532" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="533" spans="1:3">
@@ -8289,7 +9438,10 @@
         <v>836</v>
       </c>
       <c r="B533" t="s">
-        <v>627</v>
+        <v>626</v>
+      </c>
+      <c r="C533" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="534" spans="1:3">
@@ -8299,11 +9451,20 @@
       <c r="B534" t="s">
         <v>472</v>
       </c>
+      <c r="C534" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="535" spans="1:3">
       <c r="A535" s="5">
         <v>839</v>
       </c>
+      <c r="B535" s="18" t="s">
+        <v>945</v>
+      </c>
+      <c r="C535" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="536" spans="1:3">
       <c r="A536">
@@ -8323,6 +9484,9 @@
       <c r="B537" s="5" t="s">
         <v>341</v>
       </c>
+      <c r="C537" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="538" spans="1:3">
       <c r="A538">
@@ -8331,6 +9495,9 @@
       <c r="B538" t="s">
         <v>342</v>
       </c>
+      <c r="C538" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="539" spans="1:3">
       <c r="A539">
@@ -8350,6 +9517,9 @@
       <c r="B540" t="s">
         <v>497</v>
       </c>
+      <c r="C540" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="541" spans="1:3">
       <c r="A541">
@@ -8358,13 +9528,19 @@
       <c r="B541" t="s">
         <v>344</v>
       </c>
+      <c r="C541" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="542" spans="1:3">
       <c r="A542">
         <v>850</v>
       </c>
       <c r="B542" t="s">
-        <v>526</v>
+        <v>525</v>
+      </c>
+      <c r="C542" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="543" spans="1:3">
@@ -8372,7 +9548,10 @@
         <v>852</v>
       </c>
       <c r="B543" t="s">
-        <v>534</v>
+        <v>533</v>
+      </c>
+      <c r="C543" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="544" spans="1:3">
@@ -8380,7 +9559,10 @@
         <v>853</v>
       </c>
       <c r="B544" t="s">
-        <v>521</v>
+        <v>520</v>
+      </c>
+      <c r="C544" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="545" spans="1:3">
@@ -8388,7 +9570,10 @@
         <v>855</v>
       </c>
       <c r="B545" t="s">
-        <v>517</v>
+        <v>516</v>
+      </c>
+      <c r="C545" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="546" spans="1:3">
@@ -8409,6 +9594,9 @@
       <c r="B547" t="s">
         <v>346</v>
       </c>
+      <c r="C547" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="548" spans="1:3">
       <c r="A548">
@@ -8428,6 +9616,9 @@
       <c r="B549" t="s">
         <v>348</v>
       </c>
+      <c r="C549" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="550" spans="1:3">
       <c r="A550">
@@ -8535,11 +9726,20 @@
       <c r="B559" s="5" t="s">
         <v>358</v>
       </c>
+      <c r="C559" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="560" spans="1:3">
       <c r="A560" s="5">
         <v>890</v>
       </c>
+      <c r="B560" s="18" t="s">
+        <v>944</v>
+      </c>
+      <c r="C560" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="561" spans="1:3" s="5" customFormat="1">
       <c r="A561" s="5">
@@ -8548,6 +9748,9 @@
       <c r="B561" s="5" t="s">
         <v>359</v>
       </c>
+      <c r="C561" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="562" spans="1:3">
       <c r="A562">
@@ -8556,6 +9759,9 @@
       <c r="B562" t="s">
         <v>360</v>
       </c>
+      <c r="C562" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="563" spans="1:3">
       <c r="A563">
@@ -8586,6 +9792,9 @@
       <c r="B565" s="5" t="s">
         <v>486</v>
       </c>
+      <c r="C565" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="566" spans="1:3">
       <c r="A566">
@@ -8605,6 +9814,9 @@
       <c r="B567" t="s">
         <v>364</v>
       </c>
+      <c r="C567" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="568" spans="1:3">
       <c r="A568">
@@ -8644,7 +9856,10 @@
         <v>911</v>
       </c>
       <c r="B571" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
+      </c>
+      <c r="C571" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="572" spans="1:3">
@@ -8654,13 +9869,19 @@
       <c r="B572" t="s">
         <v>470</v>
       </c>
+      <c r="C572" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="573" spans="1:3">
       <c r="A573">
         <v>917</v>
       </c>
       <c r="B573" t="s">
-        <v>629</v>
+        <v>628</v>
+      </c>
+      <c r="C573" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="574" spans="1:3">
@@ -8679,7 +9900,10 @@
         <v>920</v>
       </c>
       <c r="B575" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
+      </c>
+      <c r="C575" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="576" spans="1:3">
@@ -8698,7 +9922,10 @@
         <v>924</v>
       </c>
       <c r="B577" s="5" t="s">
-        <v>577</v>
+        <v>576</v>
+      </c>
+      <c r="C577" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="578" spans="1:3">
@@ -8730,6 +9957,9 @@
       <c r="B580" t="s">
         <v>459</v>
       </c>
+      <c r="C580" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="581" spans="1:3" s="5" customFormat="1">
       <c r="A581" s="5">
@@ -8771,6 +10001,9 @@
       <c r="B584" s="5" t="s">
         <v>375</v>
       </c>
+      <c r="C584" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="585" spans="1:3">
       <c r="A585">
@@ -8790,13 +10023,19 @@
       <c r="B586" s="5" t="s">
         <v>467</v>
       </c>
+      <c r="C586" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="587" spans="1:3">
       <c r="A587">
         <v>941</v>
       </c>
       <c r="B587" t="s">
-        <v>538</v>
+        <v>537</v>
+      </c>
+      <c r="C587" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="588" spans="1:3">
@@ -8806,6 +10045,9 @@
       <c r="B588" t="s">
         <v>482</v>
       </c>
+      <c r="C588" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="589" spans="1:3">
       <c r="A589">
@@ -8825,11 +10067,20 @@
       <c r="B590" s="5" t="s">
         <v>461</v>
       </c>
+      <c r="C590" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="591" spans="1:3">
       <c r="A591" s="5">
         <v>949</v>
       </c>
+      <c r="B591" s="18" t="s">
+        <v>943</v>
+      </c>
+      <c r="C591" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="592" spans="1:3">
       <c r="A592">
@@ -8849,6 +10100,9 @@
       <c r="B593" s="5" t="s">
         <v>379</v>
       </c>
+      <c r="C593" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="594" spans="1:5">
       <c r="A594">
@@ -8857,11 +10111,20 @@
       <c r="B594" t="s">
         <v>380</v>
       </c>
+      <c r="C594" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="595" spans="1:5">
       <c r="A595" s="5">
         <v>959</v>
       </c>
+      <c r="B595" s="18" t="s">
+        <v>942</v>
+      </c>
+      <c r="C595" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="596" spans="1:5">
       <c r="A596">
@@ -8870,6 +10133,9 @@
       <c r="B596" t="s">
         <v>495</v>
       </c>
+      <c r="C596" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="597" spans="1:5">
       <c r="A597">
@@ -8887,7 +10153,10 @@
         <v>969</v>
       </c>
       <c r="B598" t="s">
-        <v>630</v>
+        <v>629</v>
+      </c>
+      <c r="C598" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="599" spans="1:5">
@@ -8897,6 +10166,9 @@
       <c r="B599" t="s">
         <v>382</v>
       </c>
+      <c r="C599" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="600" spans="1:5">
       <c r="A600">
@@ -8916,6 +10188,9 @@
       <c r="B601" s="5" t="s">
         <v>460</v>
       </c>
+      <c r="C601" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="602" spans="1:5">
       <c r="A602">
@@ -8935,6 +10210,9 @@
       <c r="B603" t="s">
         <v>385</v>
       </c>
+      <c r="C603" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="604" spans="1:5">
       <c r="A604">
@@ -8954,7 +10232,9 @@
       <c r="B605" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="C605" s="5"/>
+      <c r="C605" t="s">
+        <v>3</v>
+      </c>
       <c r="D605" s="5"/>
       <c r="E605" s="5"/>
     </row>
@@ -8963,7 +10243,10 @@
         <v>982</v>
       </c>
       <c r="B606" t="s">
-        <v>546</v>
+        <v>545</v>
+      </c>
+      <c r="C606" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="607" spans="1:5" s="5" customFormat="1">
@@ -9080,6 +10363,12 @@
       <c r="A617" s="5">
         <v>1004</v>
       </c>
+      <c r="B617" s="18" t="s">
+        <v>941</v>
+      </c>
+      <c r="C617" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="618" spans="1:3">
       <c r="A618">
@@ -9088,6 +10377,9 @@
       <c r="B618" t="s">
         <v>458</v>
       </c>
+      <c r="C618" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="619" spans="1:3">
       <c r="A619">
@@ -9107,6 +10399,9 @@
       <c r="B620" t="s">
         <v>399</v>
       </c>
+      <c r="C620" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="621" spans="1:3">
       <c r="A621">
@@ -9157,7 +10452,10 @@
         <v>1032</v>
       </c>
       <c r="B625" t="s">
-        <v>511</v>
+        <v>510</v>
+      </c>
+      <c r="C625" t="s">
+        <v>6</v>
       </c>
       <c r="E625" s="1"/>
     </row>
@@ -9176,6 +10474,12 @@
       <c r="A627" s="5">
         <v>1048</v>
       </c>
+      <c r="B627" s="18" t="s">
+        <v>940</v>
+      </c>
+      <c r="C627" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="628" spans="1:5">
       <c r="A628">
@@ -9192,6 +10496,12 @@
       <c r="A629" s="5">
         <v>1052</v>
       </c>
+      <c r="B629" s="18" t="s">
+        <v>939</v>
+      </c>
+      <c r="C629" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="630" spans="1:5" s="5" customFormat="1">
       <c r="A630" s="5">
@@ -9200,13 +10510,19 @@
       <c r="B630" s="5" t="s">
         <v>477</v>
       </c>
+      <c r="C630" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="631" spans="1:5">
       <c r="A631">
         <v>1056</v>
       </c>
       <c r="B631" t="s">
-        <v>578</v>
+        <v>577</v>
+      </c>
+      <c r="C631" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="632" spans="1:5">
@@ -9216,13 +10532,19 @@
       <c r="B632" t="s">
         <v>468</v>
       </c>
+      <c r="C632" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="633" spans="1:5">
       <c r="A633">
         <v>1066</v>
       </c>
       <c r="B633" t="s">
-        <v>507</v>
+        <v>506</v>
+      </c>
+      <c r="C633" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="634" spans="1:5" s="5" customFormat="1">
@@ -9230,7 +10552,10 @@
         <v>1074</v>
       </c>
       <c r="B634" s="5" t="s">
-        <v>553</v>
+        <v>552</v>
+      </c>
+      <c r="C634" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="635" spans="1:5">
@@ -9238,7 +10563,10 @@
         <v>1087</v>
       </c>
       <c r="B635" t="s">
-        <v>536</v>
+        <v>535</v>
+      </c>
+      <c r="C635" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="636" spans="1:5" s="5" customFormat="1">
@@ -9248,11 +10576,20 @@
       <c r="B636" s="5" t="s">
         <v>496</v>
       </c>
+      <c r="C636" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="637" spans="1:5">
       <c r="A637" s="5">
         <v>1091</v>
       </c>
+      <c r="B637" s="18" t="s">
+        <v>938</v>
+      </c>
+      <c r="C637" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="638" spans="1:5">
       <c r="A638">
@@ -9283,21 +10620,42 @@
       <c r="B640" t="s">
         <v>487</v>
       </c>
+      <c r="C640" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="641" spans="1:3">
       <c r="A641" s="5">
         <v>1101</v>
       </c>
+      <c r="B641" s="18" t="s">
+        <v>935</v>
+      </c>
+      <c r="C641" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="642" spans="1:3">
       <c r="A642" s="5">
         <v>1102</v>
       </c>
+      <c r="B642" s="18" t="s">
+        <v>936</v>
+      </c>
+      <c r="C642" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="643" spans="1:3">
       <c r="A643" s="5">
         <v>1105</v>
       </c>
+      <c r="B643" s="18" t="s">
+        <v>937</v>
+      </c>
+      <c r="C643" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="644" spans="1:3" s="5" customFormat="1">
       <c r="A644" s="5">
@@ -9306,6 +10664,9 @@
       <c r="B644" s="5" t="s">
         <v>408</v>
       </c>
+      <c r="C644" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="645" spans="1:3">
       <c r="A645">
@@ -9334,7 +10695,10 @@
         <v>1145</v>
       </c>
       <c r="B647" t="s">
-        <v>550</v>
+        <v>549</v>
+      </c>
+      <c r="C647" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="648" spans="1:3" s="5" customFormat="1">
@@ -9342,133 +10706,205 @@
         <v>1146</v>
       </c>
       <c r="B648" s="5" t="s">
-        <v>571</v>
+        <v>570</v>
+      </c>
+      <c r="C648" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="649" spans="1:3">
-      <c r="A649">
+      <c r="A649" s="5">
         <v>1153</v>
       </c>
-      <c r="B649" t="s">
-        <v>502</v>
+      <c r="B649" s="18" t="s">
+        <v>934</v>
+      </c>
+      <c r="C649" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="650" spans="1:3">
-      <c r="A650" s="5">
-        <v>1153</v>
+      <c r="A650">
+        <v>1155</v>
+      </c>
+      <c r="B650" t="s">
+        <v>411</v>
+      </c>
+      <c r="C650" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="651" spans="1:3">
       <c r="A651">
-        <v>1155</v>
+        <v>1168</v>
       </c>
       <c r="B651" t="s">
-        <v>411</v>
+        <v>546</v>
       </c>
       <c r="C651" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="652" spans="1:3">
       <c r="A652">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="B652" t="s">
-        <v>547</v>
+        <v>481</v>
+      </c>
+      <c r="C652" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="653" spans="1:3">
-      <c r="A653">
-        <v>1170</v>
-      </c>
-      <c r="B653" t="s">
-        <v>481</v>
+      <c r="A653" s="5">
+        <v>1171</v>
+      </c>
+      <c r="B653" s="18" t="s">
+        <v>933</v>
+      </c>
+      <c r="C653" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="654" spans="1:3">
-      <c r="A654" s="5">
-        <v>1171</v>
+      <c r="A654">
+        <v>1185</v>
+      </c>
+      <c r="B654" t="s">
+        <v>625</v>
+      </c>
+      <c r="C654" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="655" spans="1:3">
-      <c r="A655">
-        <v>1185</v>
-      </c>
-      <c r="B655" t="s">
-        <v>626</v>
+      <c r="A655" s="5">
+        <v>1197</v>
+      </c>
+      <c r="B655" s="18" t="s">
+        <v>932</v>
+      </c>
+      <c r="C655" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="656" spans="1:3">
       <c r="A656" s="5">
-        <v>1197</v>
+        <v>1218</v>
+      </c>
+      <c r="B656" s="18" t="s">
+        <v>931</v>
+      </c>
+      <c r="C656" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="657" spans="1:3">
-      <c r="A657" s="5">
-        <v>1218</v>
+      <c r="A657">
+        <v>1219</v>
+      </c>
+      <c r="B657" t="s">
+        <v>556</v>
+      </c>
+      <c r="C657" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="658" spans="1:3">
-      <c r="A658">
-        <v>1219</v>
-      </c>
-      <c r="B658" t="s">
-        <v>557</v>
+      <c r="A658" s="5">
+        <v>1220</v>
+      </c>
+      <c r="B658" s="18" t="s">
+        <v>930</v>
+      </c>
+      <c r="C658" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="659" spans="1:3">
       <c r="A659" s="5">
-        <v>1220</v>
+        <v>1229</v>
+      </c>
+      <c r="B659" s="18" t="s">
+        <v>929</v>
+      </c>
+      <c r="C659" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="660" spans="1:3">
-      <c r="A660" s="5">
-        <v>1229</v>
+      <c r="A660">
+        <v>1231</v>
+      </c>
+      <c r="B660" t="s">
+        <v>541</v>
+      </c>
+      <c r="C660" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="661" spans="1:3">
       <c r="A661">
-        <v>1231</v>
+        <v>1235</v>
       </c>
       <c r="B661" t="s">
-        <v>542</v>
+        <v>412</v>
+      </c>
+      <c r="C661" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="662" spans="1:3">
-      <c r="A662">
-        <v>1235</v>
-      </c>
-      <c r="B662" t="s">
-        <v>412</v>
+      <c r="A662" s="5">
+        <v>1237</v>
+      </c>
+      <c r="B662" s="18" t="s">
+        <v>928</v>
       </c>
       <c r="C662" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="663" spans="1:3">
-      <c r="A663" s="5">
-        <v>1237</v>
+      <c r="A663">
+        <v>1239</v>
+      </c>
+      <c r="B663" t="s">
+        <v>641</v>
+      </c>
+      <c r="C663" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="664" spans="1:3">
-      <c r="A664">
-        <v>1239</v>
-      </c>
-      <c r="B664" t="s">
-        <v>642</v>
+      <c r="A664" s="5">
+        <v>1240</v>
+      </c>
+      <c r="B664" s="18" t="s">
+        <v>927</v>
+      </c>
+      <c r="C664" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="665" spans="1:3">
-      <c r="A665" s="5">
-        <v>1240</v>
+      <c r="A665">
+        <v>1249</v>
+      </c>
+      <c r="B665" t="s">
+        <v>413</v>
+      </c>
+      <c r="C665" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="666" spans="1:3">
-      <c r="A666">
-        <v>1249</v>
-      </c>
-      <c r="B666" t="s">
-        <v>413</v>
+      <c r="A666" s="5">
+        <v>1254</v>
+      </c>
+      <c r="B666" s="18" t="s">
+        <v>926</v>
       </c>
       <c r="C666" t="s">
         <v>3</v>
@@ -9476,136 +10912,208 @@
     </row>
     <row r="667" spans="1:3">
       <c r="A667" s="5">
-        <v>1254</v>
+        <v>1255</v>
+      </c>
+      <c r="B667" s="18" t="s">
+        <v>925</v>
+      </c>
+      <c r="C667" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="668" spans="1:3">
       <c r="A668" s="5">
-        <v>1255</v>
+        <v>1263</v>
+      </c>
+      <c r="B668" s="18" t="s">
+        <v>924</v>
+      </c>
+      <c r="C668" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="669" spans="1:3">
-      <c r="A669" s="5">
-        <v>1263</v>
+      <c r="A669">
+        <v>1268</v>
+      </c>
+      <c r="B669" t="s">
+        <v>414</v>
+      </c>
+      <c r="C669" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="670" spans="1:3">
-      <c r="A670">
-        <v>1268</v>
-      </c>
-      <c r="B670" t="s">
-        <v>414</v>
+      <c r="A670" s="5">
+        <v>1275</v>
+      </c>
+      <c r="B670" s="18" t="s">
+        <v>923</v>
       </c>
       <c r="C670" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="671" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="671" spans="1:3" s="5" customFormat="1">
       <c r="A671" s="5">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="672" spans="1:3" s="5" customFormat="1">
+        <v>1277</v>
+      </c>
+      <c r="B671" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="C671" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="672" spans="1:3">
       <c r="A672" s="5">
-        <v>1277</v>
-      </c>
-      <c r="B672" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="C672" s="5" t="s">
-        <v>3</v>
+        <v>1284</v>
+      </c>
+      <c r="B672" s="18" t="s">
+        <v>922</v>
+      </c>
+      <c r="C672" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="673" spans="1:3">
       <c r="A673" s="5">
-        <v>1284</v>
+        <v>1293</v>
+      </c>
+      <c r="B673" s="18" t="s">
+        <v>921</v>
+      </c>
+      <c r="C673" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="674" spans="1:3">
       <c r="A674" s="5">
-        <v>1293</v>
+        <v>1296</v>
+      </c>
+      <c r="B674" s="18" t="s">
+        <v>920</v>
+      </c>
+      <c r="C674" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="675" spans="1:3">
       <c r="A675" s="5">
-        <v>1296</v>
+        <v>1302</v>
+      </c>
+      <c r="B675" s="18" t="s">
+        <v>919</v>
+      </c>
+      <c r="C675" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="676" spans="1:3">
-      <c r="A676" s="5">
-        <v>1302</v>
+      <c r="A676">
+        <v>1312</v>
+      </c>
+      <c r="B676" t="s">
+        <v>416</v>
+      </c>
+      <c r="C676" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="677" spans="1:3">
       <c r="A677">
-        <v>1312</v>
+        <v>1319</v>
       </c>
       <c r="B677" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C677" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="678" spans="1:3">
-      <c r="A678">
-        <v>1319</v>
-      </c>
-      <c r="B678" t="s">
-        <v>417</v>
+      <c r="A678" s="5">
+        <v>1345</v>
+      </c>
+      <c r="B678" s="18" t="s">
+        <v>918</v>
       </c>
       <c r="C678" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="679" spans="1:3">
       <c r="A679" s="5">
-        <v>1345</v>
+        <v>1352</v>
+      </c>
+      <c r="B679" s="18" t="s">
+        <v>917</v>
+      </c>
+      <c r="C679" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="680" spans="1:3">
-      <c r="A680" s="5">
-        <v>1352</v>
+      <c r="A680">
+        <v>1353</v>
+      </c>
+      <c r="B680" t="s">
+        <v>418</v>
+      </c>
+      <c r="C680" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="681" spans="1:3">
-      <c r="A681">
-        <v>1353</v>
-      </c>
-      <c r="B681" t="s">
-        <v>418</v>
+      <c r="A681" s="5">
+        <v>1363</v>
+      </c>
+      <c r="B681" s="18" t="s">
+        <v>916</v>
       </c>
       <c r="C681" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="682" spans="1:3">
-      <c r="A682" s="5">
-        <v>1363</v>
+      <c r="A682">
+        <v>1367</v>
+      </c>
+      <c r="B682" t="s">
+        <v>419</v>
+      </c>
+      <c r="C682" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="683" spans="1:3">
-      <c r="A683">
-        <v>1367</v>
-      </c>
-      <c r="B683" t="s">
-        <v>419</v>
+      <c r="A683" s="5">
+        <v>1376</v>
+      </c>
+      <c r="B683" s="18" t="s">
+        <v>915</v>
       </c>
       <c r="C683" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="684" spans="1:3">
-      <c r="A684" s="5">
-        <v>1376</v>
+      <c r="A684">
+        <v>1381</v>
+      </c>
+      <c r="B684" t="s">
+        <v>420</v>
+      </c>
+      <c r="C684" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="685" spans="1:3">
-      <c r="A685">
-        <v>1381</v>
-      </c>
-      <c r="B685" t="s">
-        <v>420</v>
+      <c r="A685" s="5">
+        <v>1387</v>
+      </c>
+      <c r="B685" s="18" t="s">
+        <v>914</v>
       </c>
       <c r="C685" t="s">
         <v>3</v>
@@ -9613,20 +11121,32 @@
     </row>
     <row r="686" spans="1:3">
       <c r="A686" s="5">
-        <v>1387</v>
-      </c>
-    </row>
-    <row r="687" spans="1:3">
+        <v>1423</v>
+      </c>
+      <c r="B686" s="18" t="s">
+        <v>913</v>
+      </c>
+      <c r="C686" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="687" spans="1:3" s="5" customFormat="1">
       <c r="A687" s="5">
-        <v>1423</v>
+        <v>1438</v>
+      </c>
+      <c r="B687" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="C687" s="5" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="688" spans="1:3">
       <c r="A688">
-        <v>1438</v>
+        <v>1448</v>
       </c>
       <c r="B688" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C688" t="s">
         <v>3</v>
@@ -9634,15 +11154,21 @@
     </row>
     <row r="689" spans="1:3">
       <c r="A689" s="5">
-        <v>1438</v>
+        <v>1473</v>
+      </c>
+      <c r="B689" s="18" t="s">
+        <v>912</v>
+      </c>
+      <c r="C689" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="690" spans="1:3">
-      <c r="A690">
-        <v>1448</v>
-      </c>
-      <c r="B690" t="s">
-        <v>422</v>
+      <c r="A690" s="5">
+        <v>1477</v>
+      </c>
+      <c r="B690" s="18" t="s">
+        <v>911</v>
       </c>
       <c r="C690" t="s">
         <v>3</v>
@@ -9650,371 +11176,784 @@
     </row>
     <row r="691" spans="1:3">
       <c r="A691" s="5">
-        <v>1473</v>
+        <v>1499</v>
+      </c>
+      <c r="B691" s="18" t="s">
+        <v>910</v>
+      </c>
+      <c r="C691" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="692" spans="1:3">
       <c r="A692" s="5">
-        <v>1477</v>
-      </c>
-    </row>
-    <row r="693" spans="1:3">
+        <v>1506</v>
+      </c>
+      <c r="B692" s="18" t="s">
+        <v>909</v>
+      </c>
+      <c r="C692" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="693" spans="1:3" s="5" customFormat="1">
       <c r="A693" s="5">
-        <v>1499</v>
+        <v>1509</v>
+      </c>
+      <c r="B693" s="5" t="s">
+        <v>852</v>
+      </c>
+      <c r="C693" s="5" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="694" spans="1:3">
-      <c r="A694" s="5">
-        <v>1506</v>
-      </c>
-    </row>
-    <row r="695" spans="1:3" s="5" customFormat="1">
+      <c r="A694">
+        <v>1547</v>
+      </c>
+      <c r="B694" t="s">
+        <v>423</v>
+      </c>
+      <c r="C694" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="695" spans="1:3">
       <c r="A695" s="5">
-        <v>1509</v>
-      </c>
-      <c r="B695" s="5" t="s">
-        <v>853</v>
-      </c>
-      <c r="C695" s="5" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B695" s="18" t="s">
+        <v>908</v>
+      </c>
+      <c r="C695" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="696" spans="1:3">
-      <c r="A696">
-        <v>1547</v>
-      </c>
-      <c r="B696" t="s">
-        <v>423</v>
+      <c r="A696" s="5">
+        <v>1579</v>
+      </c>
+      <c r="B696" s="18" t="s">
+        <v>907</v>
       </c>
       <c r="C696" t="s">
-        <v>424</v>
+        <v>6</v>
       </c>
     </row>
     <row r="697" spans="1:3">
       <c r="A697" s="5">
-        <v>1554</v>
+        <v>1597</v>
+      </c>
+      <c r="B697" s="18" t="s">
+        <v>906</v>
+      </c>
+      <c r="C697" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="698" spans="1:3">
       <c r="A698" s="5">
-        <v>1579</v>
+        <v>1606</v>
+      </c>
+      <c r="B698" s="18" t="s">
+        <v>905</v>
+      </c>
+      <c r="C698" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="699" spans="1:3">
       <c r="A699" s="5">
-        <v>1597</v>
+        <v>1610</v>
+      </c>
+      <c r="B699" s="18" t="s">
+        <v>904</v>
+      </c>
+      <c r="C699" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="700" spans="1:3">
       <c r="A700" s="5">
-        <v>1606</v>
+        <v>1628</v>
+      </c>
+      <c r="B700" s="18" t="s">
+        <v>903</v>
+      </c>
+      <c r="C700" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="701" spans="1:3">
       <c r="A701" s="5">
-        <v>1610</v>
+        <v>1631</v>
+      </c>
+      <c r="B701" s="18" t="s">
+        <v>902</v>
+      </c>
+      <c r="C701" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="702" spans="1:3">
       <c r="A702" s="5">
-        <v>1628</v>
+        <v>1632</v>
+      </c>
+      <c r="B702" s="18" t="s">
+        <v>901</v>
+      </c>
+      <c r="C702" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="703" spans="1:3">
       <c r="A703" s="5">
-        <v>1631</v>
+        <v>1642</v>
+      </c>
+      <c r="B703" s="18" t="s">
+        <v>900</v>
+      </c>
+      <c r="C703" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="704" spans="1:3">
       <c r="A704" s="5">
-        <v>1632</v>
+        <v>1647</v>
+      </c>
+      <c r="B704" s="18" t="s">
+        <v>899</v>
+      </c>
+      <c r="C704" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="705" spans="1:4">
       <c r="A705" s="5">
-        <v>1642</v>
+        <v>1697</v>
+      </c>
+      <c r="B705" s="18" t="s">
+        <v>898</v>
+      </c>
+      <c r="C705" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="706" spans="1:4">
       <c r="A706" s="5">
-        <v>1647</v>
+        <v>1756</v>
+      </c>
+      <c r="B706" s="18" t="s">
+        <v>897</v>
+      </c>
+      <c r="C706" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="707" spans="1:4">
       <c r="A707" s="5">
-        <v>1697</v>
+        <v>1776</v>
+      </c>
+      <c r="B707" s="18" t="s">
+        <v>896</v>
+      </c>
+      <c r="C707" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="708" spans="1:4">
       <c r="A708" s="5">
-        <v>1756</v>
+        <v>1793</v>
+      </c>
+      <c r="B708" s="18" t="s">
+        <v>895</v>
+      </c>
+      <c r="C708" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="709" spans="1:4">
       <c r="A709" s="5">
-        <v>1776</v>
+        <v>1820</v>
+      </c>
+      <c r="B709" s="18" t="s">
+        <v>894</v>
+      </c>
+      <c r="C709" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="710" spans="1:4">
       <c r="A710" s="5">
-        <v>1793</v>
+        <v>1825</v>
+      </c>
+      <c r="B710" s="18" t="s">
+        <v>893</v>
+      </c>
+      <c r="C710" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="711" spans="1:4">
       <c r="A711" s="5">
-        <v>1820</v>
+        <v>1834</v>
+      </c>
+      <c r="B711" s="18" t="s">
+        <v>892</v>
+      </c>
+      <c r="C711" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="712" spans="1:4">
       <c r="A712" s="5">
-        <v>1825</v>
+        <v>1882</v>
+      </c>
+      <c r="B712" s="18" t="s">
+        <v>891</v>
+      </c>
+      <c r="C712" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="713" spans="1:4">
       <c r="A713" s="5">
-        <v>1834</v>
+        <v>1885</v>
+      </c>
+      <c r="B713" s="18" t="s">
+        <v>890</v>
+      </c>
+      <c r="C713" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="714" spans="1:4">
       <c r="A714" s="5">
-        <v>1882</v>
+        <v>1937</v>
+      </c>
+      <c r="B714" s="18" t="s">
+        <v>889</v>
+      </c>
+      <c r="C714" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="715" spans="1:4">
       <c r="A715" s="5">
-        <v>1885</v>
+        <v>1986</v>
+      </c>
+      <c r="B715" s="18" t="s">
+        <v>888</v>
+      </c>
+      <c r="C715" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="716" spans="1:4">
       <c r="A716" s="5">
-        <v>1937</v>
-      </c>
-    </row>
-    <row r="717" spans="1:4">
+        <v>1996</v>
+      </c>
+      <c r="B716" s="18" t="s">
+        <v>887</v>
+      </c>
+      <c r="C716" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="717" spans="1:4" s="5" customFormat="1">
       <c r="A717" s="5">
-        <v>1986</v>
+        <v>2007</v>
+      </c>
+      <c r="B717" s="5" t="s">
+        <v>853</v>
+      </c>
+      <c r="C717" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D717" s="5">
+        <v>954</v>
       </c>
     </row>
     <row r="718" spans="1:4">
       <c r="A718" s="5">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="719" spans="1:4" s="5" customFormat="1">
+        <v>2013</v>
+      </c>
+      <c r="B718" s="18" t="s">
+        <v>858</v>
+      </c>
+      <c r="C718" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="719" spans="1:4">
       <c r="A719" s="5">
-        <v>2007</v>
-      </c>
-      <c r="B719" s="5" t="s">
-        <v>854</v>
-      </c>
-      <c r="C719" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D719" s="5">
-        <v>954</v>
+        <v>2018</v>
+      </c>
+      <c r="B719" s="18" t="s">
+        <v>859</v>
+      </c>
+      <c r="C719" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="720" spans="1:4">
       <c r="A720" s="5">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="721" spans="1:1">
+        <v>2034</v>
+      </c>
+      <c r="B720" s="18" t="s">
+        <v>860</v>
+      </c>
+      <c r="C720" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="721" spans="1:3">
       <c r="A721" s="5">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="722" spans="1:1">
+        <v>2035</v>
+      </c>
+      <c r="B721" s="18" t="s">
+        <v>861</v>
+      </c>
+      <c r="C721" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="722" spans="1:3">
       <c r="A722" s="5">
-        <v>2034</v>
-      </c>
-    </row>
-    <row r="723" spans="1:1">
+        <v>2092</v>
+      </c>
+      <c r="B722" s="18" t="s">
+        <v>862</v>
+      </c>
+      <c r="C722" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="723" spans="1:3">
       <c r="A723" s="5">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="724" spans="1:1">
+        <v>2096</v>
+      </c>
+      <c r="B723" s="18" t="s">
+        <v>863</v>
+      </c>
+      <c r="C723" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="724" spans="1:3">
       <c r="A724" s="5">
-        <v>2092</v>
-      </c>
-    </row>
-    <row r="725" spans="1:1">
+        <v>2101</v>
+      </c>
+      <c r="B724" s="18" t="s">
+        <v>864</v>
+      </c>
+      <c r="C724" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="725" spans="1:3">
       <c r="A725" s="5">
-        <v>2096</v>
-      </c>
-    </row>
-    <row r="726" spans="1:1">
+        <v>2115</v>
+      </c>
+      <c r="B725" s="18" t="s">
+        <v>865</v>
+      </c>
+      <c r="C725" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="726" spans="1:3">
       <c r="A726" s="5">
-        <v>2101</v>
-      </c>
-    </row>
-    <row r="727" spans="1:1">
+        <v>2127</v>
+      </c>
+      <c r="B726" s="18" t="s">
+        <v>866</v>
+      </c>
+      <c r="C726" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="727" spans="1:3">
       <c r="A727" s="5">
-        <v>2115</v>
-      </c>
-    </row>
-    <row r="728" spans="1:1">
+        <v>2128</v>
+      </c>
+      <c r="B727" s="18" t="s">
+        <v>867</v>
+      </c>
+      <c r="C727" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="728" spans="1:3">
       <c r="A728" s="5">
-        <v>2127</v>
-      </c>
-    </row>
-    <row r="729" spans="1:1">
+        <v>2132</v>
+      </c>
+      <c r="B728" s="18" t="s">
+        <v>868</v>
+      </c>
+      <c r="C728" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="729" spans="1:3">
       <c r="A729" s="5">
-        <v>2128</v>
-      </c>
-    </row>
-    <row r="730" spans="1:1">
+        <v>2135</v>
+      </c>
+      <c r="B729" s="18" t="s">
+        <v>869</v>
+      </c>
+      <c r="C729" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="730" spans="1:3">
       <c r="A730" s="5">
-        <v>2132</v>
-      </c>
-    </row>
-    <row r="731" spans="1:1">
+        <v>2158</v>
+      </c>
+      <c r="B730" s="18" t="s">
+        <v>870</v>
+      </c>
+      <c r="C730" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="731" spans="1:3">
       <c r="A731" s="5">
-        <v>2135</v>
-      </c>
-    </row>
-    <row r="732" spans="1:1">
+        <v>2162</v>
+      </c>
+      <c r="B731" s="18" t="s">
+        <v>871</v>
+      </c>
+      <c r="C731" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="732" spans="1:3">
       <c r="A732" s="5">
-        <v>2158</v>
-      </c>
-    </row>
-    <row r="733" spans="1:1">
+        <v>2172</v>
+      </c>
+      <c r="B732" s="18" t="s">
+        <v>872</v>
+      </c>
+      <c r="C732" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="733" spans="1:3">
       <c r="A733" s="5">
-        <v>2162</v>
-      </c>
-    </row>
-    <row r="734" spans="1:1">
+        <v>2171</v>
+      </c>
+      <c r="B733" s="18" t="s">
+        <v>873</v>
+      </c>
+      <c r="C733" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="734" spans="1:3">
       <c r="A734" s="5">
-        <v>2171</v>
-      </c>
-    </row>
-    <row r="735" spans="1:1">
+        <v>2178</v>
+      </c>
+      <c r="B734" s="18" t="s">
+        <v>874</v>
+      </c>
+      <c r="C734" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="735" spans="1:3">
       <c r="A735" s="5">
-        <v>2172</v>
-      </c>
-    </row>
-    <row r="736" spans="1:1">
+        <v>2184</v>
+      </c>
+      <c r="B735" s="18" t="s">
+        <v>875</v>
+      </c>
+      <c r="C735" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="736" spans="1:3">
       <c r="A736" s="5">
-        <v>2178</v>
+        <v>2185</v>
+      </c>
+      <c r="B736" s="18" t="s">
+        <v>876</v>
+      </c>
+      <c r="C736" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="737" spans="1:4">
       <c r="A737" s="5">
-        <v>2184</v>
+        <v>2188</v>
+      </c>
+      <c r="B737" s="18" t="s">
+        <v>877</v>
+      </c>
+      <c r="C737" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="738" spans="1:4">
       <c r="A738" s="5">
-        <v>2185</v>
+        <v>2224</v>
+      </c>
+      <c r="B738" s="18" t="s">
+        <v>878</v>
+      </c>
+      <c r="C738" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="739" spans="1:4">
       <c r="A739" s="5">
-        <v>2188</v>
+        <v>2235</v>
+      </c>
+      <c r="B739" s="18" t="s">
+        <v>879</v>
+      </c>
+      <c r="C739" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="740" spans="1:4">
       <c r="A740" s="5">
-        <v>2224</v>
+        <v>2242</v>
+      </c>
+      <c r="B740" s="18" t="s">
+        <v>880</v>
+      </c>
+      <c r="C740" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="741" spans="1:4">
       <c r="A741" s="5">
-        <v>2235</v>
+        <v>2250</v>
+      </c>
+      <c r="B741" s="18" t="s">
+        <v>881</v>
+      </c>
+      <c r="C741" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="742" spans="1:4">
       <c r="A742" s="5">
-        <v>2242</v>
+        <v>2258</v>
+      </c>
+      <c r="B742" s="18" t="s">
+        <v>882</v>
+      </c>
+      <c r="C742" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="743" spans="1:4">
       <c r="A743" s="5">
-        <v>2250</v>
+        <v>2271</v>
+      </c>
+      <c r="B743" s="18" t="s">
+        <v>883</v>
+      </c>
+      <c r="C743" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="744" spans="1:4">
       <c r="A744" s="5">
-        <v>2258</v>
+        <v>2276</v>
+      </c>
+      <c r="B744" s="18" t="s">
+        <v>884</v>
+      </c>
+      <c r="C744" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="745" spans="1:4">
       <c r="A745" s="5">
-        <v>2271</v>
+        <v>2277</v>
+      </c>
+      <c r="B745" s="18" t="s">
+        <v>885</v>
+      </c>
+      <c r="C745" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="746" spans="1:4">
       <c r="A746" s="5">
-        <v>2276</v>
+        <v>2311</v>
+      </c>
+      <c r="B746" s="18" t="s">
+        <v>886</v>
+      </c>
+      <c r="C746" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="747" spans="1:4">
       <c r="A747" s="5">
-        <v>2277</v>
-      </c>
-    </row>
-    <row r="748" spans="1:4">
+        <v>2337</v>
+      </c>
+      <c r="B747" t="s">
+        <v>857</v>
+      </c>
+      <c r="C747" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="748" spans="1:4" s="5" customFormat="1">
       <c r="A748" s="5">
-        <v>2311</v>
-      </c>
-      <c r="B748" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="749" spans="1:4">
+        <v>2345</v>
+      </c>
+      <c r="B748" s="17" t="s">
+        <v>854</v>
+      </c>
+      <c r="C748" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="749" spans="1:4" s="5" customFormat="1">
       <c r="A749" s="5">
-        <v>2337</v>
-      </c>
-      <c r="B749" t="s">
-        <v>858</v>
-      </c>
-      <c r="C749" t="s">
-        <v>3</v>
+        <v>2364</v>
+      </c>
+      <c r="B749" s="5" t="s">
+        <v>855</v>
+      </c>
+      <c r="C749" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D749" s="5">
+        <v>1814</v>
       </c>
     </row>
     <row r="750" spans="1:4" s="5" customFormat="1">
       <c r="A750" s="5">
-        <v>2345</v>
-      </c>
-      <c r="B750" s="17" t="s">
-        <v>855</v>
+        <v>2366</v>
+      </c>
+      <c r="B750" s="5" t="s">
+        <v>856</v>
       </c>
       <c r="C750" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="751" spans="1:4" s="5" customFormat="1">
-      <c r="A751" s="5">
-        <v>2364</v>
-      </c>
-      <c r="B751" s="5" t="s">
-        <v>856</v>
-      </c>
-      <c r="C751" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D751" s="5">
-        <v>1814</v>
-      </c>
-    </row>
-    <row r="752" spans="1:4" s="5" customFormat="1">
-      <c r="A752" s="5">
-        <v>2366</v>
-      </c>
-      <c r="B752" s="5" t="s">
-        <v>857</v>
-      </c>
-      <c r="C752" s="5" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:E753">
-    <sortCondition ref="A575:A753"/>
+  <autoFilter ref="A1:E750" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:E751">
+    <sortCondition ref="A575:A751"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="B718" r:id="rId1" display="https://leetcode.com/problems/detect-squares" xr:uid="{0000172F-70F5-4356-B12B-EB25A87E5546}"/>
+    <hyperlink ref="B719" r:id="rId2" display="https://leetcode.com/problems/check-if-word-can-be-placed-in-crossword" xr:uid="{32E16CD8-46EF-4DF4-995E-4CEFCB7E2B67}"/>
+    <hyperlink ref="B720" r:id="rId3" display="https://leetcode.com/problems/stock-price-fluctuation" xr:uid="{9D20C519-57C4-498E-9A95-953794F64268}"/>
+    <hyperlink ref="B721" r:id="rId4" display="https://leetcode.com/problems/partition-array-into-two-arrays-to-minimize-sum-difference" xr:uid="{6E04264F-0DD0-4F96-9CD8-BCC789E1171D}"/>
+    <hyperlink ref="B722" r:id="rId5" display="https://leetcode.com/problems/find-all-people-with-secret" xr:uid="{01C08C65-CD8F-4425-B880-CF42117FD37E}"/>
+    <hyperlink ref="B723" r:id="rId6" display="https://leetcode.com/problems/step-by-step-directions-from-a-binary-tree-node-to-another" xr:uid="{4A6270B0-EDEF-42D8-B3EA-94BE4BFA0F18}"/>
+    <hyperlink ref="B724" r:id="rId7" display="https://leetcode.com/problems/detonate-the-maximum-bombs" xr:uid="{7BFC6099-2808-4F7D-A366-E14BE9965546}"/>
+    <hyperlink ref="B725" r:id="rId8" display="https://leetcode.com/problems/find-all-possible-recipes-from-given-supplies" xr:uid="{B92CFB8F-9F25-4347-9CAB-1E06833C5294}"/>
+    <hyperlink ref="B726" r:id="rId9" display="https://leetcode.com/problems/maximum-employees-to-be-invited-to-a-meeting" xr:uid="{DD62321C-7F5B-4F1D-B1B5-A07F56F6EC33}"/>
+    <hyperlink ref="B727" r:id="rId10" display="https://leetcode.com/problems/remove-all-ones-with-row-and-column-flips" xr:uid="{5DE5FD9B-32D3-4492-BFE9-53FD6587DA56}"/>
+    <hyperlink ref="B728" r:id="rId11" display="https://leetcode.com/problems/stamping-the-grid" xr:uid="{453F3EB3-7B7C-47A9-BA55-7E26CDA94437}"/>
+    <hyperlink ref="B729" r:id="rId12" display="https://leetcode.com/problems/count-words-obtained-after-adding-a-letter" xr:uid="{25898EA7-7905-483E-9A0E-E8B2CA515DA2}"/>
+    <hyperlink ref="B730" r:id="rId13" display="https://leetcode.com/problems/amount-of-new-area-painted-each-day" xr:uid="{10261740-451D-4A93-9699-C6715664805C}"/>
+    <hyperlink ref="B731" r:id="rId14" display="https://leetcode.com/problems/minimum-cost-to-set-cooking-time" xr:uid="{3C891F76-6D15-4477-9E99-D89B280EE932}"/>
+    <hyperlink ref="B732" r:id="rId15" display="https://leetcode.com/problems/maximum-and-sum-of-array" xr:uid="{920542D0-EDC6-4779-B186-2C6EFC0AF207}"/>
+    <hyperlink ref="B733" r:id="rId16" display="https://leetcode.com/problems/removing-minimum-number-of-magic-beans" xr:uid="{1881B40A-633D-4AAF-AF09-F16FB0550B79}"/>
+    <hyperlink ref="B734" r:id="rId17" display="https://leetcode.com/problems/maximum-split-of-positive-even-integers" xr:uid="{5C02F2FE-3EF7-45A2-ABFF-B38C2A148946}"/>
+    <hyperlink ref="B735" r:id="rId18" display="https://leetcode.com/problems/number-of-ways-to-build-sturdy-brick-wall" xr:uid="{4678D1AF-C8A1-4101-B4CE-83552F8E39B5}"/>
+    <hyperlink ref="B736" r:id="rId19" display="https://leetcode.com/problems/counting-words-with-a-given-prefix" xr:uid="{4F27239E-2D58-4ECD-A1AC-16F766C00EF9}"/>
+    <hyperlink ref="B737" r:id="rId20" display="https://leetcode.com/problems/minimum-time-to-finish-the-race" xr:uid="{3D5E8CC8-FDFB-420F-B794-87194AA7487E}"/>
+    <hyperlink ref="B738" r:id="rId21" display="https://leetcode.com/problems/minimum-number-of-operations-to-convert-time" xr:uid="{0A4CA918-86E1-484C-AD6B-CC63E9F0E86D}"/>
+    <hyperlink ref="B739" r:id="rId22" display="https://leetcode.com/problems/add-two-integers" xr:uid="{8A96E10F-CFCD-4F39-AB44-843F2B010B5E}"/>
+    <hyperlink ref="B740" r:id="rId23" display="https://leetcode.com/problems/maximum-score-of-a-node-sequence" xr:uid="{7B552A96-3D45-443F-824C-BA7F97AD9D89}"/>
+    <hyperlink ref="B741" r:id="rId24" display="https://leetcode.com/problems/count-number-of-rectangles-containing-each-point" xr:uid="{CE7A802B-22DC-4DF1-8D97-C50606768179}"/>
+    <hyperlink ref="B742" r:id="rId25" display="https://leetcode.com/problems/escape-the-spreading-fire" xr:uid="{740B437E-82B9-40FD-9C8F-27010C87EC23}"/>
+    <hyperlink ref="B743" r:id="rId26" display="https://leetcode.com/problems/maximum-white-tiles-covered-by-a-carpet" xr:uid="{1D99C6FB-8F4A-4C2C-8E1C-9D08E475A750}"/>
+    <hyperlink ref="B744" r:id="rId27" display="https://leetcode.com/problems/count-integers-in-intervals" xr:uid="{575E9DC9-F8CC-493F-8160-51E4AC1524EA}"/>
+    <hyperlink ref="B745" r:id="rId28" display="https://leetcode.com/problems/closest-node-to-path-in-tree" xr:uid="{C5016129-3D07-4AEB-B924-60A147816D2B}"/>
+    <hyperlink ref="B746" r:id="rId29" display="https://leetcode.com/problems/longest-binary-subsequence-less-than-or-equal-to-k" xr:uid="{DE23C2AC-7644-4EA5-87DA-AA29142DF43B}"/>
+    <hyperlink ref="B716" r:id="rId30" display="https://leetcode.com/problems/the-number-of-weak-characters-in-the-game" xr:uid="{550811C2-5CF5-4B14-9B0A-8F35E70DF650}"/>
+    <hyperlink ref="B715" r:id="rId31" display="https://leetcode.com/problems/minimum-number-of-work-sessions-to-finish-the-tasks" xr:uid="{8DC2E767-4593-4739-A03D-1E26C332A49F}"/>
+    <hyperlink ref="B714" r:id="rId32" display="https://leetcode.com/problems/maximum-number-of-points-with-cost" xr:uid="{24BF339E-80F8-4270-AB29-36EA93C668A4}"/>
+    <hyperlink ref="B713" r:id="rId33" display="https://leetcode.com/problems/count-pairs-in-two-arrays" xr:uid="{71C46451-28ED-45F9-9581-D71BCB48A2BC}"/>
+    <hyperlink ref="B712" r:id="rId34" display="https://leetcode.com/problems/process-tasks-using-servers" xr:uid="{31B7C752-97A7-4622-B9A8-D5D1F1A9BF94}"/>
+    <hyperlink ref="B711" r:id="rId35" display="https://leetcode.com/problems/single-threaded-cpu" xr:uid="{62A459DB-658F-4E40-9F0E-381355D153CC}"/>
+    <hyperlink ref="B710" r:id="rId36" display="https://leetcode.com/problems/finding-mk-average" xr:uid="{BE5E4D82-8B9B-4167-B878-8556DCA774E8}"/>
+    <hyperlink ref="B709" r:id="rId37" display="https://leetcode.com/problems/maximum-number-of-accepted-invitations" xr:uid="{F949E3DA-A6B9-451D-9726-337956950088}"/>
+    <hyperlink ref="B708" r:id="rId38" display="https://leetcode.com/problems/maximum-score-of-a-good-subarray" xr:uid="{FD46720E-1A8F-4D61-A811-B0C809BC8DFF}"/>
+    <hyperlink ref="B707" r:id="rId39" display="https://leetcode.com/problems/car-fleet-ii" xr:uid="{167C2029-24FE-4195-9399-72311C9BCEBE}"/>
+    <hyperlink ref="B706" r:id="rId40" display="https://leetcode.com/problems/design-most-recently-used-queue" xr:uid="{E7A0F82D-7D5E-44A0-801B-47FA62A4EA3A}"/>
+    <hyperlink ref="B705" r:id="rId41" display="https://leetcode.com/problems/checking-existence-of-edge-length-limited-paths" xr:uid="{BF2122CF-43F0-4EC7-AE39-0ECD4DE5C56E}"/>
+    <hyperlink ref="B704" r:id="rId42" display="https://leetcode.com/problems/minimum-deletions-to-make-character-frequencies-unique" xr:uid="{7F04FB63-FD6C-454B-B326-78B632AC53FE}"/>
+    <hyperlink ref="B703" r:id="rId43" display="https://leetcode.com/problems/furthest-building-you-can-reach" xr:uid="{C5FDE1F6-B4ED-48C1-9A01-E313D9B98D3C}"/>
+    <hyperlink ref="B702" r:id="rId44" display="https://leetcode.com/problems/rank-transform-of-a-matrix" xr:uid="{DA4F58EA-1153-469C-83A9-43322D5F6F8D}"/>
+    <hyperlink ref="B701" r:id="rId45" display="https://leetcode.com/problems/path-with-minimum-effort" xr:uid="{F511A376-D1A8-48E3-BE82-585C1B5C1332}"/>
+    <hyperlink ref="B700" r:id="rId46" display="https://leetcode.com/problems/design-an-expression-tree-with-evaluate-function" xr:uid="{67269C52-1D41-42B0-A74E-F7F008649740}"/>
+    <hyperlink ref="B699" r:id="rId47" display="https://leetcode.com/problems/maximum-number-of-visible-points" xr:uid="{DC469FB7-4DC2-441F-A551-B19FDB47684F}"/>
+    <hyperlink ref="B698" r:id="rId48" display="https://leetcode.com/problems/find-servers-that-handled-most-number-of-requests" xr:uid="{EDF288A3-099A-4FA3-8ACC-F3B38228066A}"/>
+    <hyperlink ref="B697" r:id="rId49" display="https://leetcode.com/problems/build-binary-expression-tree-from-infix-expression" xr:uid="{31F0C6C0-5180-459E-B157-7471E266CB0B}"/>
+    <hyperlink ref="B696" r:id="rId50" display="https://leetcode.com/problems/remove-max-number-of-edges-to-keep-graph-fully-traversable" xr:uid="{2A0E070D-4D09-4ECE-BB3B-F63F58F502A3}"/>
+    <hyperlink ref="B695" r:id="rId51" display="https://leetcode.com/problems/strings-differ-by-one-character" xr:uid="{22DAF78E-3E40-4BDB-82F2-025BD7485BBD}"/>
+    <hyperlink ref="B692" r:id="rId52" display="https://leetcode.com/problems/find-root-of-n-ary-tree" xr:uid="{C366A7DD-3593-4BC9-917F-297A950542EB}"/>
+    <hyperlink ref="B691" r:id="rId53" display="https://leetcode.com/problems/max-value-of-equation" xr:uid="{F530284E-0DDC-4630-A2D1-8E9438410D98}"/>
+    <hyperlink ref="B690" r:id="rId54" display="https://leetcode.com/problems/find-two-non-overlapping-sub-arrays-each-with-target-sum" xr:uid="{A7C383C4-1826-49E8-9ED8-753D09FC3BF8}"/>
+    <hyperlink ref="B689" r:id="rId55" display="https://leetcode.com/problems/paint-house-iii" xr:uid="{19C74114-EA40-42F4-83A7-30A339D16BFB}"/>
+    <hyperlink ref="B686" r:id="rId56" display="https://leetcode.com/problems/maximum-points-you-can-obtain-from-cards" xr:uid="{BB70E983-56D9-4B44-B33D-3D95B0A41353}"/>
+    <hyperlink ref="B685" r:id="rId57" display="https://leetcode.com/problems/sort-integers-by-the-power-value" xr:uid="{1C04FCFE-227A-46FF-A927-030B0D268698}"/>
+    <hyperlink ref="B683" r:id="rId58" display="https://leetcode.com/problems/time-needed-to-inform-all-employees" xr:uid="{869B0299-1765-47ED-A1EB-8830E7F5C482}"/>
+    <hyperlink ref="B681" r:id="rId59" display="https://leetcode.com/problems/largest-multiple-of-three" xr:uid="{35C74748-88B9-4E9E-A59A-AA52A932FF19}"/>
+    <hyperlink ref="B679" r:id="rId60" display="https://leetcode.com/problems/product-of-the-last-k-numbers" xr:uid="{56B49129-22DA-47FC-A8B3-48629619265C}"/>
+    <hyperlink ref="B678" r:id="rId61" display="https://leetcode.com/problems/jump-game-iv" xr:uid="{B95FBCE0-CCEF-4EBB-A5B0-CFC77624F536}"/>
+    <hyperlink ref="B675" r:id="rId62" display="https://leetcode.com/problems/deepest-leaves-sum" xr:uid="{26BF258C-4578-406B-9F52-6043CBF9A373}"/>
+    <hyperlink ref="B674" r:id="rId63" display="https://leetcode.com/problems/divide-array-in-sets-of-k-consecutive-numbers" xr:uid="{8C9A80C8-7529-4284-8101-C5870BC73D61}"/>
+    <hyperlink ref="B673" r:id="rId64" display="https://leetcode.com/problems/shortest-path-in-a-grid-with-obstacles-elimination" xr:uid="{A1390A52-969D-4DB5-A803-1C6321687B56}"/>
+    <hyperlink ref="B672" r:id="rId65" display="https://leetcode.com/problems/minimum-number-of-flips-to-convert-binary-matrix-to-zero-matrix" xr:uid="{1FBB4E24-D241-44FD-9F37-9B44CF0B7391}"/>
+    <hyperlink ref="B670" r:id="rId66" display="https://leetcode.com/problems/find-winner-on-a-tic-tac-toe-game" xr:uid="{47408A4D-FFFC-4B7F-8E68-9DA41AFF5E79}"/>
+    <hyperlink ref="B668" r:id="rId67" display="https://leetcode.com/problems/minimum-moves-to-move-a-box-to-their-target-location" xr:uid="{DE847103-8240-4BBD-AE46-B4E720FF15AE}"/>
+    <hyperlink ref="B667" r:id="rId68" display="https://leetcode.com/problems/maximum-score-words-formed-by-letters" xr:uid="{F3000334-6821-4F55-9D8C-2AEA2011D883}"/>
+    <hyperlink ref="B666" r:id="rId69" display="https://leetcode.com/problems/number-of-closed-islands" xr:uid="{7654E713-B5E3-4700-9154-E6123E0B8659}"/>
+    <hyperlink ref="B664" r:id="rId70" display="https://leetcode.com/problems/tiling-a-rectangle-with-the-fewest-squares" xr:uid="{C5690CFC-B87D-439D-AD50-B18ED17B9C63}"/>
+    <hyperlink ref="B662" r:id="rId71" display="https://leetcode.com/problems/find-positive-integer-solution-for-a-given-equation" xr:uid="{0BD78EEE-1A06-417B-A1CF-DF704BB9C504}"/>
+    <hyperlink ref="B659" r:id="rId72" display="https://leetcode.com/problems/meeting-scheduler" xr:uid="{C1170E23-5B19-41C0-9FFA-E64C8B5796F0}"/>
+    <hyperlink ref="B658" r:id="rId73" display="https://leetcode.com/problems/count-vowels-permutation" xr:uid="{DEE78DAF-7286-4E88-BCC9-F16CA7BFA00F}"/>
+    <hyperlink ref="B656" r:id="rId74" display="https://leetcode.com/problems/longest-arithmetic-subsequence-of-given-difference" xr:uid="{A6DA32BD-C6D4-4912-B3B7-FD7C6CA039F9}"/>
+    <hyperlink ref="B655" r:id="rId75" display="https://leetcode.com/problems/minimum-knight-moves" xr:uid="{5AACF36C-C576-499B-A1EC-49BBD7B32F4D}"/>
+    <hyperlink ref="B653" r:id="rId76" display="https://leetcode.com/problems/remove-zero-sum-consecutive-nodes-from-linked-list" xr:uid="{43D013A7-22EC-4CE9-9FD8-C7C7529DFC4B}"/>
+    <hyperlink ref="B649" r:id="rId77" display="https://leetcode.com/problems/string-transforms-into-another-string" xr:uid="{EA32B7DA-30DE-465E-A8D3-A9B747AF2758}"/>
+    <hyperlink ref="B641" r:id="rId78" display="https://leetcode.com/problems/the-earliest-moment-when-everyone-become-friends" xr:uid="{A54FB4B2-BF5D-4D72-AE7A-C7762F0D4D9C}"/>
+    <hyperlink ref="B642" r:id="rId79" display="https://leetcode.com/problems/path-with-maximum-minimum-value" xr:uid="{E89D9F61-62D0-4D8A-8B69-8DA4FB93E186}"/>
+    <hyperlink ref="B643" r:id="rId80" display="https://leetcode.com/problems/filling-bookcase-shelves" xr:uid="{D0A378FD-B368-49BD-AE69-B468D2D8D9BB}"/>
+    <hyperlink ref="B637" r:id="rId81" display="https://leetcode.com/problems/shortest-path-in-binary-matrix" xr:uid="{642E4293-F31E-44D2-9970-15087672A384}"/>
+    <hyperlink ref="B629" r:id="rId82" display="https://leetcode.com/problems/grumpy-bookstore-owner" xr:uid="{8E854789-72FD-4708-9F77-1C177D9A04FC}"/>
+    <hyperlink ref="B627" r:id="rId83" display="https://leetcode.com/problems/longest-string-chain" xr:uid="{77B73770-C097-4667-BEB4-FC46F9EDEEFE}"/>
+    <hyperlink ref="B617" r:id="rId84" display="https://leetcode.com/problems/max-consecutive-ones-iii" xr:uid="{B622189C-4E04-42A0-9434-E5A55AEC83C3}"/>
+    <hyperlink ref="B595" r:id="rId85" display="https://leetcode.com/problems/regions-cut-by-slashes" xr:uid="{72097996-C2E8-4FAD-94BB-4863CABF4244}"/>
+    <hyperlink ref="B591" r:id="rId86" display="https://leetcode.com/problems/largest-time-for-given-digits" xr:uid="{E59BD7BD-476A-4503-A490-886D8A95B118}"/>
+    <hyperlink ref="B560" r:id="rId87" display="https://leetcode.com/problems/find-and-replace-pattern" xr:uid="{8BFD0672-F463-4288-8D19-07CB638FAF2A}"/>
+    <hyperlink ref="B535" r:id="rId88" display="https://leetcode.com/problems/similar-string-groups" xr:uid="{B2393CC3-CE26-41F8-98EA-D0FF5F2275D1}"/>
+    <hyperlink ref="B205" r:id="rId89" display="https://leetcode.com/problems/h-index" xr:uid="{8194267E-EFF6-4CDC-A9EC-DA5AC3E26AEC}"/>
+    <hyperlink ref="B220" r:id="rId90" display="https://leetcode.com/problems/best-meeting-point" xr:uid="{B803EE85-77A9-4917-A66F-2A942395B12F}"/>
+    <hyperlink ref="B228" r:id="rId91" display="https://leetcode.com/problems/additive-number" xr:uid="{68A5912C-73D1-484B-B8A8-554884CAC514}"/>
+    <hyperlink ref="B286" r:id="rId92" display="https://leetcode.com/problems/longest-absolute-file-path" xr:uid="{987FA072-8D3F-42E2-A3FA-504B7B7BE219}"/>
+    <hyperlink ref="B308" r:id="rId93" display="https://leetcode.com/problems/sentence-screen-fitting" xr:uid="{62529AE7-913E-4FCD-B30D-B1858A26021E}"/>
+    <hyperlink ref="B310" r:id="rId94" display="https://leetcode.com/problems/strong-password-checker" xr:uid="{04322B28-56DA-4728-AC50-260A8F098C3A}"/>
+    <hyperlink ref="B314" r:id="rId95" display="https://leetcode.com/problems/construct-quad-tree" xr:uid="{373D880E-C8F5-4A54-9803-A6A1AB912B3D}"/>
+    <hyperlink ref="B339" r:id="rId96" display="https://leetcode.com/problems/minimum-moves-to-equal-array-elements-ii" xr:uid="{21840B06-284E-41C6-A809-A924D296EDB2}"/>
+    <hyperlink ref="B380" r:id="rId97" display="https://leetcode.com/problems/minimum-time-difference" xr:uid="{1F0DE599-DC0C-48DF-A9AD-FBDCA051A139}"/>
+    <hyperlink ref="B402" r:id="rId98" display="https://leetcode.com/problems/valid-square" xr:uid="{5D14CA74-6965-45E9-8CD8-9AE64C26B3CC}"/>
+    <hyperlink ref="B411" r:id="rId99" display="https://leetcode.com/problems/k-inverse-pairs-array" xr:uid="{9DE8C66A-9111-4803-9D72-86C01BAB2DC0}"/>
+    <hyperlink ref="B461" r:id="rId100" display="https://leetcode.com/problems/range-module" xr:uid="{3A77ED76-5CBB-43EA-8ED8-FEB0EB90AD71}"/>
+    <hyperlink ref="B487" r:id="rId101" display="https://leetcode.com/problems/range-module" xr:uid="{0D3B9B35-FF9B-41AD-9CE8-7EFD8ED83918}"/>
+    <hyperlink ref="B488" r:id="rId102" display="https://leetcode.com/problems/employee-free-time" xr:uid="{BB0189E1-E924-494B-BE0C-1AFE4CE63625}"/>
+    <hyperlink ref="B502" r:id="rId103" display="https://leetcode.com/problems/swim-in-rising-water" xr:uid="{14A7B7FD-DA55-4671-9A9F-E2FA7E5727A2}"/>
+    <hyperlink ref="B508" r:id="rId104" display="https://leetcode.com/problems/domino-and-tromino-tiling" xr:uid="{4260F6C1-8B02-499D-8BCE-D07B481B9AF1}"/>
+    <hyperlink ref="B517" r:id="rId105" display="https://leetcode.com/problems/max-increase-to-keep-city-skyline" xr:uid="{3453496F-D4C7-401C-82E0-318C300A9B09}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId106"/>
 </worksheet>
 </file>
 
@@ -10036,1080 +11975,1080 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1" thickBot="1">
       <c r="A1" s="6" t="s">
+        <v>660</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>661</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>662</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>663</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" thickBot="1">
       <c r="A2" s="8" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="10" t="s">
+        <v>665</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>666</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" thickBot="1">
       <c r="A3" s="8" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>84</v>
       </c>
       <c r="C3" s="10" t="s">
+        <v>667</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>668</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" thickBot="1">
       <c r="A4" s="8" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>670</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" s="11" t="s">
         <v>671</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" thickBot="1">
       <c r="A5" s="8" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>151</v>
       </c>
       <c r="C5" s="10" t="s">
+        <v>672</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>673</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" thickBot="1">
       <c r="A6" s="8" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>37</v>
       </c>
       <c r="C6" s="10" t="s">
+        <v>674</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>675</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" thickBot="1">
       <c r="A7" s="8" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>108</v>
       </c>
       <c r="C7" s="10" t="s">
+        <v>676</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>677</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" thickBot="1">
       <c r="A8" s="8" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>109</v>
       </c>
       <c r="C8" s="10" t="s">
+        <v>678</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>679</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" thickBot="1">
       <c r="A9" s="8" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="10" t="s">
+        <v>680</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>681</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" thickBot="1">
       <c r="A10" s="8" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="10" t="s">
+        <v>682</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>683</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" thickBot="1">
       <c r="A11" s="8" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="10" t="s">
+        <v>684</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>685</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1" thickBot="1">
       <c r="A12" s="8" t="s">
+        <v>686</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>687</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="C12" s="10" t="s">
         <v>688</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="D12" s="11" t="s">
         <v>689</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" thickBot="1">
       <c r="A13" s="8" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B13" s="9" t="s">
+        <v>690</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>691</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="D13" s="11" t="s">
         <v>692</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" thickBot="1">
       <c r="A14" s="8" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>180</v>
       </c>
       <c r="C14" s="10" t="s">
+        <v>693</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>694</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1" thickBot="1">
       <c r="A15" s="8" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>156</v>
       </c>
       <c r="C15" s="10" t="s">
+        <v>695</v>
+      </c>
+      <c r="D15" s="11" t="s">
         <v>696</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" thickBot="1">
       <c r="A16" s="8" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B16" s="9" t="s">
+        <v>697</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>698</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="D16" s="11" t="s">
         <v>699</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" thickBot="1">
       <c r="A17" s="8" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>42</v>
       </c>
       <c r="C17" s="10" t="s">
+        <v>701</v>
+      </c>
+      <c r="D17" s="11" t="s">
         <v>702</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" thickBot="1">
       <c r="A18" s="8" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>172</v>
       </c>
       <c r="C18" s="10" t="s">
+        <v>703</v>
+      </c>
+      <c r="D18" s="13" t="s">
         <v>704</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" thickBot="1">
       <c r="A19" s="8" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>165</v>
       </c>
       <c r="C19" s="10" t="s">
+        <v>705</v>
+      </c>
+      <c r="D19" s="13" t="s">
         <v>706</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" thickBot="1">
       <c r="A20" s="8" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>410</v>
       </c>
       <c r="C20" s="10" t="s">
+        <v>707</v>
+      </c>
+      <c r="D20" s="13" t="s">
         <v>708</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" thickBot="1">
       <c r="A21" s="8" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B21" s="12" t="s">
+        <v>709</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>710</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="D21" s="11" t="s">
         <v>711</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" thickBot="1">
       <c r="A22" s="8" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C22" s="10" t="s">
+        <v>712</v>
+      </c>
+      <c r="D22" s="11" t="s">
         <v>713</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" thickBot="1">
       <c r="A23" s="8" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>122</v>
       </c>
       <c r="C23" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="D23" s="11" t="s">
         <v>715</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" thickBot="1">
       <c r="A24" s="8" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>133</v>
       </c>
       <c r="C24" s="10" t="s">
+        <v>716</v>
+      </c>
+      <c r="D24" s="11" t="s">
         <v>717</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" thickBot="1">
       <c r="A25" s="8" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>57</v>
       </c>
       <c r="C25" s="10" t="s">
+        <v>718</v>
+      </c>
+      <c r="D25" s="11" t="s">
         <v>719</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" thickBot="1">
       <c r="A26" s="8" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>39</v>
       </c>
       <c r="C26" s="10" t="s">
+        <v>720</v>
+      </c>
+      <c r="D26" s="11" t="s">
         <v>721</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1" thickBot="1">
       <c r="A27" s="8" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>38</v>
       </c>
       <c r="C27" s="10" t="s">
+        <v>722</v>
+      </c>
+      <c r="D27" s="13" t="s">
         <v>723</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" thickBot="1">
       <c r="A28" s="8" t="s">
+        <v>724</v>
+      </c>
+      <c r="B28" s="12" t="s">
         <v>725</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="C28" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="D28" s="11" t="s">
         <v>727</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" thickBot="1">
       <c r="A29" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>127</v>
       </c>
       <c r="C29" s="10" t="s">
+        <v>728</v>
+      </c>
+      <c r="D29" s="11" t="s">
         <v>729</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" thickBot="1">
       <c r="A30" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>213</v>
       </c>
       <c r="C30" s="10" t="s">
+        <v>730</v>
+      </c>
+      <c r="D30" s="11" t="s">
         <v>731</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" thickBot="1">
       <c r="A31" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>124</v>
       </c>
       <c r="C31" s="10" t="s">
+        <v>732</v>
+      </c>
+      <c r="D31" s="11" t="s">
         <v>733</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" thickBot="1">
       <c r="A32" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B32" s="14" t="s">
         <v>90</v>
       </c>
       <c r="C32" s="10" t="s">
+        <v>734</v>
+      </c>
+      <c r="D32" s="13" t="s">
         <v>735</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" thickBot="1">
       <c r="A33" s="15" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B33" s="14" t="s">
+        <v>736</v>
+      </c>
+      <c r="C33" s="10" t="s">
         <v>737</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="D33" s="13" t="s">
         <v>738</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" thickBot="1">
       <c r="A34" s="15" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B34" s="12" t="s">
+        <v>739</v>
+      </c>
+      <c r="C34" s="10" t="s">
         <v>740</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="D34" s="13" t="s">
         <v>741</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1" thickBot="1">
       <c r="A35" s="15" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B35" s="12" t="s">
+        <v>742</v>
+      </c>
+      <c r="C35" s="10" t="s">
         <v>743</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="D35" s="11" t="s">
         <v>744</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" thickBot="1">
       <c r="A36" s="8" t="s">
+        <v>745</v>
+      </c>
+      <c r="B36" s="14" t="s">
         <v>746</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="C36" s="10" t="s">
         <v>747</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="D36" s="11" t="s">
         <v>748</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1" thickBot="1">
       <c r="A37" s="8" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B37" s="12" t="s">
+        <v>749</v>
+      </c>
+      <c r="C37" s="10" t="s">
         <v>750</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="D37" s="11" t="s">
         <v>751</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" thickBot="1">
       <c r="A38" s="8" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B38" s="12" t="s">
         <v>219</v>
       </c>
       <c r="C38" s="10" t="s">
+        <v>752</v>
+      </c>
+      <c r="D38" s="11" t="s">
         <v>753</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1" thickBot="1">
       <c r="A39" s="15" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B39" s="9" t="s">
+        <v>754</v>
+      </c>
+      <c r="C39" s="10" t="s">
         <v>755</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="D39" s="11" t="s">
         <v>756</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1" thickBot="1">
       <c r="A40" s="15" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B40" s="12" t="s">
+        <v>757</v>
+      </c>
+      <c r="C40" s="10" t="s">
         <v>758</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="D40" s="13" t="s">
         <v>759</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1" thickBot="1">
       <c r="A41" s="8" t="s">
+        <v>760</v>
+      </c>
+      <c r="B41" s="9" t="s">
         <v>761</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="C41" s="10" t="s">
         <v>762</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="D41" s="11" t="s">
         <v>763</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1" thickBot="1">
       <c r="A42" s="8" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B42" s="9" t="s">
+        <v>764</v>
+      </c>
+      <c r="C42" s="10" t="s">
         <v>765</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="D42" s="11" t="s">
         <v>766</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1" thickBot="1">
       <c r="A43" s="8" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B43" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C43" s="10" t="s">
+        <v>767</v>
+      </c>
+      <c r="D43" s="11" t="s">
         <v>768</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>769</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" thickBot="1">
       <c r="A44" s="8" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B44" s="14" t="s">
+        <v>769</v>
+      </c>
+      <c r="C44" s="10" t="s">
         <v>770</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="D44" s="11" t="s">
         <v>771</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1" thickBot="1">
       <c r="A45" s="8" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B45" s="12" t="s">
+        <v>772</v>
+      </c>
+      <c r="C45" s="10" t="s">
         <v>773</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="D45" s="11" t="s">
         <v>774</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1" thickBot="1">
       <c r="A46" s="8" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B46" s="12" t="s">
         <v>102</v>
       </c>
       <c r="C46" s="10" t="s">
+        <v>775</v>
+      </c>
+      <c r="D46" s="11" t="s">
         <v>776</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1" thickBot="1">
       <c r="A47" s="8" t="s">
+        <v>777</v>
+      </c>
+      <c r="B47" s="12" t="s">
         <v>778</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="C47" s="10" t="s">
         <v>779</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="D47" s="11" t="s">
         <v>780</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1" thickBot="1">
       <c r="A48" s="8" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B48" s="12" t="s">
+        <v>781</v>
+      </c>
+      <c r="C48" s="10" t="s">
         <v>782</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="D48" s="11" t="s">
         <v>783</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1" thickBot="1">
       <c r="A49" s="8" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B49" s="12" t="s">
         <v>33</v>
       </c>
       <c r="C49" s="10" t="s">
+        <v>784</v>
+      </c>
+      <c r="D49" s="11" t="s">
         <v>785</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1" thickBot="1">
       <c r="A50" s="8" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B50" s="12" t="s">
         <v>49</v>
       </c>
       <c r="C50" s="10" t="s">
+        <v>786</v>
+      </c>
+      <c r="D50" s="11" t="s">
         <v>787</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1" thickBot="1">
       <c r="A51" s="8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B51" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C51" s="10" t="s">
+        <v>789</v>
+      </c>
+      <c r="D51" s="11" t="s">
         <v>790</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" thickBot="1">
       <c r="A52" s="8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B52" s="12" t="s">
         <v>215</v>
       </c>
       <c r="C52" s="10" t="s">
+        <v>791</v>
+      </c>
+      <c r="D52" s="13" t="s">
         <v>792</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1" thickBot="1">
       <c r="A53" s="8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B53" s="14" t="s">
         <v>46</v>
       </c>
       <c r="C53" s="10" t="s">
+        <v>793</v>
+      </c>
+      <c r="D53" s="13" t="s">
         <v>794</v>
-      </c>
-      <c r="D53" s="13" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1" thickBot="1">
       <c r="A54" s="8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B54" s="9" t="s">
+        <v>795</v>
+      </c>
+      <c r="C54" s="10" t="s">
         <v>796</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="D54" s="11" t="s">
         <v>797</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1" thickBot="1">
       <c r="A55" s="8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B55" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C55" s="10" t="s">
+        <v>798</v>
+      </c>
+      <c r="D55" s="11" t="s">
         <v>799</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1" thickBot="1">
       <c r="A56" s="8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B56" s="9" t="s">
+        <v>800</v>
+      </c>
+      <c r="C56" s="10" t="s">
         <v>801</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="D56" s="11" t="s">
         <v>802</v>
-      </c>
-      <c r="D56" s="11" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1" thickBot="1">
       <c r="A57" s="8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B57" s="9" t="s">
+        <v>803</v>
+      </c>
+      <c r="C57" s="10" t="s">
         <v>804</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="D57" s="11" t="s">
         <v>805</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15" customHeight="1" thickBot="1">
       <c r="A58" s="8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B58" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C58" s="10" t="s">
+        <v>806</v>
+      </c>
+      <c r="D58" s="11" t="s">
         <v>807</v>
-      </c>
-      <c r="D58" s="11" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15" customHeight="1" thickBot="1">
       <c r="A59" s="8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B59" s="12" t="s">
         <v>275</v>
       </c>
       <c r="C59" s="10" t="s">
+        <v>808</v>
+      </c>
+      <c r="D59" s="11" t="s">
         <v>809</v>
-      </c>
-      <c r="D59" s="11" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15" customHeight="1" thickBot="1">
       <c r="A60" s="15" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B60" s="12" t="s">
+        <v>810</v>
+      </c>
+      <c r="C60" s="10" t="s">
         <v>811</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="D60" s="11" t="s">
         <v>812</v>
-      </c>
-      <c r="D60" s="11" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15" customHeight="1" thickBot="1">
       <c r="A61" s="8" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B61" s="9" t="s">
         <v>68</v>
       </c>
       <c r="C61" s="10" t="s">
+        <v>814</v>
+      </c>
+      <c r="D61" s="11" t="s">
         <v>815</v>
-      </c>
-      <c r="D61" s="11" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15" customHeight="1" thickBot="1">
       <c r="A62" s="8" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>64</v>
       </c>
       <c r="C62" s="10" t="s">
+        <v>816</v>
+      </c>
+      <c r="D62" s="11" t="s">
         <v>817</v>
-      </c>
-      <c r="D62" s="11" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15" customHeight="1" thickBot="1">
       <c r="A63" s="8" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B63" s="9" t="s">
+        <v>818</v>
+      </c>
+      <c r="C63" s="10" t="s">
         <v>819</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="D63" s="11" t="s">
         <v>820</v>
-      </c>
-      <c r="D63" s="11" t="s">
-        <v>821</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15" customHeight="1" thickBot="1">
       <c r="A64" s="8" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B64" s="14" t="s">
         <v>87</v>
       </c>
       <c r="C64" s="10" t="s">
+        <v>821</v>
+      </c>
+      <c r="D64" s="11" t="s">
         <v>822</v>
-      </c>
-      <c r="D64" s="11" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="15" customHeight="1" thickBot="1">
       <c r="A65" s="8" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B65" s="12" t="s">
         <v>66</v>
       </c>
       <c r="C65" s="10" t="s">
+        <v>823</v>
+      </c>
+      <c r="D65" s="11" t="s">
         <v>824</v>
-      </c>
-      <c r="D65" s="11" t="s">
-        <v>825</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15" customHeight="1" thickBot="1">
       <c r="A66" s="8" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B66" s="14" t="s">
         <v>164</v>
       </c>
       <c r="C66" s="10" t="s">
+        <v>825</v>
+      </c>
+      <c r="D66" s="13" t="s">
         <v>826</v>
-      </c>
-      <c r="D66" s="13" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15" customHeight="1" thickBot="1">
       <c r="A67" s="8" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B67" s="9" t="s">
         <v>263</v>
       </c>
       <c r="C67" s="10" t="s">
+        <v>827</v>
+      </c>
+      <c r="D67" s="11" t="s">
         <v>828</v>
-      </c>
-      <c r="D67" s="11" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="15" customHeight="1" thickBot="1">
       <c r="A68" s="8" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B68" s="12" t="s">
         <v>69</v>
       </c>
       <c r="C68" s="10" t="s">
+        <v>829</v>
+      </c>
+      <c r="D68" s="11" t="s">
         <v>830</v>
-      </c>
-      <c r="D68" s="11" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15" customHeight="1" thickBot="1">
       <c r="A69" s="8" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B69" s="12" t="s">
         <v>62</v>
       </c>
       <c r="C69" s="10" t="s">
+        <v>831</v>
+      </c>
+      <c r="D69" s="11" t="s">
         <v>832</v>
-      </c>
-      <c r="D69" s="11" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15" customHeight="1" thickBot="1">
       <c r="A70" s="8" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B70" s="12" t="s">
         <v>145</v>
       </c>
       <c r="C70" s="10" t="s">
+        <v>833</v>
+      </c>
+      <c r="D70" s="11" t="s">
         <v>834</v>
-      </c>
-      <c r="D70" s="11" t="s">
-        <v>835</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15" customHeight="1" thickBot="1">
       <c r="A71" s="8" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B71" s="9" t="s">
+        <v>835</v>
+      </c>
+      <c r="C71" s="10" t="s">
         <v>836</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="D71" s="11" t="s">
         <v>837</v>
-      </c>
-      <c r="D71" s="11" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="15" customHeight="1" thickBot="1">
       <c r="A72" s="8" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B72" s="12" t="s">
         <v>128</v>
       </c>
       <c r="C72" s="10" t="s">
+        <v>838</v>
+      </c>
+      <c r="D72" s="11" t="s">
         <v>839</v>
-      </c>
-      <c r="D72" s="11" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="15" customHeight="1" thickBot="1">
       <c r="A73" s="8" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B73" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="C73" s="10" t="s">
         <v>841</v>
       </c>
-      <c r="C73" s="10" t="s">
+      <c r="D73" s="11" t="s">
         <v>842</v>
-      </c>
-      <c r="D73" s="11" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="15" customHeight="1" thickBot="1">
       <c r="A74" s="8" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B74" s="14" t="s">
         <v>132</v>
       </c>
       <c r="C74" s="10" t="s">
+        <v>843</v>
+      </c>
+      <c r="D74" s="13" t="s">
         <v>844</v>
-      </c>
-      <c r="D74" s="13" t="s">
-        <v>845</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="15" customHeight="1" thickBot="1">
       <c r="A75" s="8" t="s">
+        <v>845</v>
+      </c>
+      <c r="B75" s="14" t="s">
+        <v>769</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>770</v>
+      </c>
+      <c r="D75" s="11" t="s">
         <v>846</v>
-      </c>
-      <c r="B75" s="14" t="s">
-        <v>770</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>771</v>
-      </c>
-      <c r="D75" s="11" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="15" customHeight="1" thickBot="1">
       <c r="A76" s="8" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B76" s="12" t="s">
         <v>184</v>
       </c>
       <c r="C76" s="10" t="s">
+        <v>847</v>
+      </c>
+      <c r="D76" s="11" t="s">
         <v>848</v>
-      </c>
-      <c r="D76" s="11" t="s">
-        <v>849</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="15" customHeight="1" thickBot="1">
       <c r="A77" s="8" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B77" s="14" t="s">
         <v>163</v>
       </c>
       <c r="C77" s="10" t="s">
+        <v>849</v>
+      </c>
+      <c r="D77" s="11" t="s">
         <v>850</v>
-      </c>
-      <c r="D77" s="11" t="s">
-        <v>851</v>
       </c>
     </row>
   </sheetData>
